--- a/~documents/motion_measurements.xlsx
+++ b/~documents/motion_measurements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JShannon\Documents\~Work\SDC\HarCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JShannon\Documents\~Work\SDC\HarCar\~documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4829,13 +4829,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4859,13 +4859,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -4889,13 +4889,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -4919,13 +4919,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -5375,10 +5375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N302"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P298" sqref="P298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5392,7 +5392,7 @@
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.32500000000000001</v>
       </c>
@@ -5475,11 +5475,15 @@
         <v>500.00240799999995</v>
       </c>
       <c r="N2">
+        <f>-411.96*L2+652.51</f>
+        <v>805.01759200000004</v>
+      </c>
+      <c r="O2">
         <f>1/0.0024274</f>
         <v>411.9634176485128</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-0.75</v>
       </c>
@@ -5521,11 +5525,15 @@
         <v>501.00239970399991</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N3:N66" si="6">-411.96*L3+652.51</f>
+        <v>804.01760029600007</v>
+      </c>
+      <c r="O3">
         <f>1.5839/0.0024274</f>
         <v>652.50885721347947</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-0.5</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>11.447167611611299</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="6">RADIANS(G4)</f>
+        <f t="shared" ref="H4:H7" si="7">RADIANS(G4)</f>
         <v>0.19979076485027264</v>
       </c>
       <c r="J4">
@@ -5566,8 +5574,12 @@
         <f t="shared" si="5"/>
         <v>502.00239140799999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>803.01760859199999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.5</v>
       </c>
@@ -5590,7 +5602,7 @@
         <v>-9.6567916505189224</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.16854280948065278</v>
       </c>
       <c r="J5">
@@ -5608,8 +5620,12 @@
         <f t="shared" si="5"/>
         <v>503.00238311200002</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>802.01761688800002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.75</v>
       </c>
@@ -5632,7 +5648,7 @@
         <v>-14.574216198038739</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.25436805855326594</v>
       </c>
       <c r="J6">
@@ -5650,8 +5666,12 @@
         <f t="shared" si="5"/>
         <v>504.00237481600004</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>801.01762518399994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -5674,7 +5694,7 @@
         <v>-18.703101839365477</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.32643070743273517</v>
       </c>
       <c r="J7">
@@ -5692,8 +5712,12 @@
         <f t="shared" si="5"/>
         <v>505.00236652000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>800.01763347999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>506</v>
       </c>
@@ -5709,8 +5733,12 @@
         <f t="shared" si="5"/>
         <v>506.00235822399998</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>799.017641776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5744,8 +5772,12 @@
         <f t="shared" si="5"/>
         <v>507.00234992799994</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>798.01765007200004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5786,28 +5818,32 @@
         <f t="shared" si="5"/>
         <v>508.00234163199991</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>797.01765836800007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.2</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C13" si="7">$C$46+B11*$C$48</f>
+        <f t="shared" ref="C11:C13" si="8">$C$46+B11*$C$48</f>
         <v>704</v>
       </c>
       <c r="D11">
         <v>11.1</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E13" si="8">$A$10/D11</f>
+        <f t="shared" ref="E11:E13" si="9">$A$10/D11</f>
         <v>0.90090090090090091</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F13" si="9">$C$46+B11*$C$48</f>
+        <f t="shared" ref="F11:F13" si="10">$C$46+B11*$C$48</f>
         <v>704</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H13" si="10">E11*26.472+680.45</f>
+        <f t="shared" ref="H11:H13" si="11">E11*26.472+680.45</f>
         <v>704.29864864864874</v>
       </c>
       <c r="J11">
@@ -5825,28 +5861,32 @@
         <f t="shared" si="5"/>
         <v>509.00233333599999</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>796.01766666399999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.3</v>
       </c>
       <c r="C12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>718.5</v>
       </c>
       <c r="D12">
         <v>7.1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="F12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>718.5</v>
       </c>
       <c r="H12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>717.73450704225354</v>
       </c>
       <c r="J12">
@@ -5864,28 +5904,32 @@
         <f t="shared" si="5"/>
         <v>510.00232504000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>795.01767496000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.4</v>
       </c>
       <c r="C13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>733</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>733</v>
       </c>
       <c r="H13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>733.39400000000001</v>
       </c>
       <c r="J13">
@@ -5903,8 +5947,12 @@
         <f t="shared" si="5"/>
         <v>511.00231674400004</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>794.01768325599994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J14">
         <v>512</v>
       </c>
@@ -5920,8 +5968,12 @@
         <f t="shared" si="5"/>
         <v>512.00230844800001</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>793.01769155199997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J15">
         <v>513</v>
       </c>
@@ -5937,8 +5989,12 @@
         <f t="shared" si="5"/>
         <v>513.00230015199998</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>792.01769984800001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>514</v>
       </c>
@@ -5954,8 +6010,12 @@
         <f t="shared" si="5"/>
         <v>514.00229185599994</v>
       </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>791.01770814400004</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>515</v>
       </c>
@@ -5971,8 +6031,12 @@
         <f t="shared" si="5"/>
         <v>515.00228355999991</v>
       </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>790.01771644000007</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>516</v>
       </c>
@@ -5988,8 +6052,12 @@
         <f t="shared" si="5"/>
         <v>516.00227526399999</v>
       </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>789.01772473599999</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>517</v>
       </c>
@@ -6005,8 +6073,12 @@
         <f t="shared" si="5"/>
         <v>517.00226696799996</v>
       </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>788.01773303200002</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>518</v>
       </c>
@@ -6022,8 +6094,12 @@
         <f t="shared" si="5"/>
         <v>518.00225867200004</v>
       </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>787.01774132799994</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>519</v>
       </c>
@@ -6039,8 +6115,12 @@
         <f t="shared" si="5"/>
         <v>519.00225037600001</v>
       </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>786.01774962399998</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>520</v>
       </c>
@@ -6056,8 +6136,12 @@
         <f t="shared" si="5"/>
         <v>520.00224207999997</v>
       </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>785.01775792000001</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>521</v>
       </c>
@@ -6073,8 +6157,12 @@
         <f t="shared" si="5"/>
         <v>521.00223378399994</v>
       </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>784.01776621600004</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>522</v>
       </c>
@@ -6090,8 +6178,12 @@
         <f t="shared" si="5"/>
         <v>522.00222548800002</v>
       </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>783.01777451199996</v>
+      </c>
+    </row>
+    <row r="25" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>523</v>
       </c>
@@ -6107,8 +6199,12 @@
         <f t="shared" si="5"/>
         <v>523.00221719199999</v>
       </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>782.01778280799999</v>
+      </c>
+    </row>
+    <row r="26" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J26">
         <v>524</v>
       </c>
@@ -6124,8 +6220,12 @@
         <f t="shared" si="5"/>
         <v>524.00220889599996</v>
       </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>781.01779110400003</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J27">
         <v>525</v>
       </c>
@@ -6141,8 +6241,12 @@
         <f t="shared" si="5"/>
         <v>525.00220060000004</v>
       </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>780.01779939999994</v>
+      </c>
+    </row>
+    <row r="28" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>526</v>
       </c>
@@ -6158,8 +6262,12 @@
         <f t="shared" si="5"/>
         <v>526.002192304</v>
       </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>779.01780769599998</v>
+      </c>
+    </row>
+    <row r="29" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>527</v>
       </c>
@@ -6175,8 +6283,12 @@
         <f t="shared" si="5"/>
         <v>527.00218400799997</v>
       </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>778.01781599200001</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>528</v>
       </c>
@@ -6192,8 +6304,12 @@
         <f t="shared" si="5"/>
         <v>528.00217571199994</v>
       </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>777.01782428800004</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>529</v>
       </c>
@@ -6209,8 +6325,12 @@
         <f t="shared" si="5"/>
         <v>529.00216741599991</v>
       </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>776.01783258400008</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>530</v>
       </c>
@@ -6226,8 +6346,12 @@
         <f t="shared" si="5"/>
         <v>530.00215911999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>775.01784087999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>531</v>
       </c>
@@ -6243,8 +6367,12 @@
         <f t="shared" si="5"/>
         <v>531.00215082399995</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>774.01784917600003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>532</v>
       </c>
@@ -6260,8 +6388,12 @@
         <f t="shared" si="5"/>
         <v>532.00214252800004</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>773.01785747199995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J35">
         <v>533</v>
       </c>
@@ -6277,8 +6409,12 @@
         <f t="shared" si="5"/>
         <v>533.002134232</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>772.01786576799998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -6306,8 +6442,12 @@
         <f t="shared" si="5"/>
         <v>534.00212593599997</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>771.01787406400001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>648</v>
       </c>
@@ -6337,8 +6477,12 @@
         <f t="shared" si="5"/>
         <v>535.00211763999994</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>770.01788236000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J38">
         <v>536</v>
       </c>
@@ -6354,8 +6498,12 @@
         <f t="shared" si="5"/>
         <v>536.0021093439999</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>769.01789065600008</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0.5</v>
       </c>
@@ -6385,8 +6533,12 @@
         <f t="shared" si="5"/>
         <v>537.00210104799999</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>768.017898952</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -6409,8 +6561,12 @@
         <f t="shared" si="5"/>
         <v>538.00209275199995</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>767.01790724800003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J41">
         <v>539</v>
       </c>
@@ -6426,8 +6582,12 @@
         <f t="shared" si="5"/>
         <v>539.00208445600003</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>766.01791554399995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>0.75</v>
       </c>
@@ -6457,8 +6617,12 @@
         <f t="shared" si="5"/>
         <v>540.00207616</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>765.01792383999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>16</v>
       </c>
@@ -6481,8 +6645,12 @@
         <f t="shared" si="5"/>
         <v>541.00206786399997</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>764.01793213600001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J44">
         <v>542</v>
       </c>
@@ -6498,8 +6666,12 @@
         <f t="shared" si="5"/>
         <v>542.00205956799994</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>763.01794043200005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J45">
         <v>543</v>
       </c>
@@ -6515,8 +6687,12 @@
         <f t="shared" si="5"/>
         <v>543.0020512719999</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>762.01794872800008</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -6538,8 +6714,12 @@
         <f t="shared" si="5"/>
         <v>544.00204297599998</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>761.017957024</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>23</v>
       </c>
@@ -6561,8 +6741,12 @@
         <f t="shared" si="5"/>
         <v>545.00203468000007</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>760.01796531999992</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>24</v>
       </c>
@@ -6585,8 +6769,12 @@
         <f t="shared" si="5"/>
         <v>546.00202638400003</v>
       </c>
-    </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>759.01797361599995</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J49">
         <v>547</v>
       </c>
@@ -6602,8 +6790,12 @@
         <f t="shared" si="5"/>
         <v>547.002018088</v>
       </c>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>758.01798191199998</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J50">
         <v>548</v>
       </c>
@@ -6619,8 +6811,12 @@
         <f t="shared" si="5"/>
         <v>548.00200979199997</v>
       </c>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>757.01799020800001</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J51">
         <v>549</v>
       </c>
@@ -6636,8 +6832,12 @@
         <f t="shared" si="5"/>
         <v>549.00200149599993</v>
       </c>
-    </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>756.01799850400005</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J52">
         <v>550</v>
       </c>
@@ -6653,8 +6853,12 @@
         <f t="shared" si="5"/>
         <v>550.00199320000002</v>
       </c>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>755.01800679999997</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J53">
         <v>551</v>
       </c>
@@ -6670,8 +6874,12 @@
         <f t="shared" si="5"/>
         <v>551.00198490399998</v>
       </c>
-    </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <f t="shared" si="6"/>
+        <v>754.018015096</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J54">
         <v>552</v>
       </c>
@@ -6687,8 +6895,12 @@
         <f t="shared" si="5"/>
         <v>552.00197660800006</v>
       </c>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <f t="shared" si="6"/>
+        <v>753.01802339199992</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J55">
         <v>553</v>
       </c>
@@ -6704,8 +6916,12 @@
         <f t="shared" si="5"/>
         <v>553.00196831200003</v>
       </c>
-    </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <f t="shared" si="6"/>
+        <v>752.01803168799995</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J56">
         <v>554</v>
       </c>
@@ -6721,8 +6937,12 @@
         <f t="shared" si="5"/>
         <v>554.001960016</v>
       </c>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <f t="shared" si="6"/>
+        <v>751.01803998399998</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J57">
         <v>555</v>
       </c>
@@ -6738,8 +6958,12 @@
         <f t="shared" si="5"/>
         <v>555.00195171999997</v>
       </c>
-    </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <f t="shared" si="6"/>
+        <v>750.01804828000002</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J58">
         <v>556</v>
       </c>
@@ -6755,8 +6979,12 @@
         <f t="shared" si="5"/>
         <v>556.00194342399993</v>
       </c>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <f t="shared" si="6"/>
+        <v>749.01805657600005</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J59">
         <v>557</v>
       </c>
@@ -6772,8 +7000,12 @@
         <f t="shared" si="5"/>
         <v>557.00193512800001</v>
       </c>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <f t="shared" si="6"/>
+        <v>748.01806487199997</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J60">
         <v>558</v>
       </c>
@@ -6789,8 +7021,12 @@
         <f t="shared" si="5"/>
         <v>558.00192683199998</v>
       </c>
-    </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <f t="shared" si="6"/>
+        <v>747.018073168</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J61">
         <v>559</v>
       </c>
@@ -6806,8 +7042,12 @@
         <f t="shared" si="5"/>
         <v>559.00191853600006</v>
       </c>
-    </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <f t="shared" si="6"/>
+        <v>746.01808146399992</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J62">
         <v>560</v>
       </c>
@@ -6823,8 +7063,12 @@
         <f t="shared" si="5"/>
         <v>560.00191024000003</v>
       </c>
-    </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <f t="shared" si="6"/>
+        <v>745.01808975999995</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J63">
         <v>561</v>
       </c>
@@ -6840,8 +7084,12 @@
         <f t="shared" si="5"/>
         <v>561.001901944</v>
       </c>
-    </row>
-    <row r="64" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <f t="shared" si="6"/>
+        <v>744.01809805599999</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J64">
         <v>562</v>
       </c>
@@ -6857,8 +7105,12 @@
         <f t="shared" si="5"/>
         <v>562.00189364799996</v>
       </c>
-    </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <f t="shared" si="6"/>
+        <v>743.01810635200002</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J65">
         <v>563</v>
       </c>
@@ -6874,8 +7126,12 @@
         <f t="shared" si="5"/>
         <v>563.00188535199993</v>
       </c>
-    </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <f t="shared" si="6"/>
+        <v>742.01811464800005</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J66">
         <v>564</v>
       </c>
@@ -6891,4017 +7147,4965 @@
         <f t="shared" si="5"/>
         <v>564.00187705600001</v>
       </c>
-    </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <f t="shared" si="6"/>
+        <v>741.01812294399997</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J67">
         <v>565</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="11">-0.1391*J67+90.75</f>
+        <f t="shared" ref="K67:K130" si="12">-0.1391*J67+90.75</f>
         <v>12.158500000000004</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="12">(0.0024274*J67-1.5839)</f>
+        <f t="shared" ref="L67:L130" si="13">(0.0024274*J67-1.5839)</f>
         <v>-0.21241899999999991</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="13">411.96*L67+652.51</f>
+        <f t="shared" ref="M67:M130" si="14">411.96*L67+652.51</f>
         <v>565.00186875999998</v>
       </c>
-    </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="15">-411.96*L67+652.51</f>
+        <v>740.01813124</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J68">
         <v>566</v>
       </c>
       <c r="K68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.019400000000005</v>
       </c>
       <c r="L68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.20999159999999994</v>
       </c>
       <c r="M68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>566.00186046400006</v>
       </c>
-    </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <f t="shared" si="15"/>
+        <v>739.01813953599992</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J69">
         <v>567</v>
       </c>
       <c r="K69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.880300000000005</v>
       </c>
       <c r="L69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.20756419999999998</v>
       </c>
       <c r="M69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>567.00185216800003</v>
       </c>
-    </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <f t="shared" si="15"/>
+        <v>738.01814783199995</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J70">
         <v>568</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.741199999999992</v>
       </c>
       <c r="L70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.20513680000000001</v>
       </c>
       <c r="M70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>568.00184387199999</v>
       </c>
-    </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <f t="shared" si="15"/>
+        <v>737.01815612799999</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J71">
         <v>569</v>
       </c>
       <c r="K71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.602099999999993</v>
       </c>
       <c r="L71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.20270940000000004</v>
       </c>
       <c r="M71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>569.00183557599996</v>
       </c>
-    </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <f t="shared" si="15"/>
+        <v>736.01816442400002</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J72">
         <v>570</v>
       </c>
       <c r="K72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.462999999999994</v>
       </c>
       <c r="L72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.20028200000000007</v>
       </c>
       <c r="M72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>570.00182727999993</v>
       </c>
-    </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <f t="shared" si="15"/>
+        <v>735.01817272000005</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J73">
         <v>571</v>
       </c>
       <c r="K73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.323899999999995</v>
       </c>
       <c r="L73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1978546000000001</v>
       </c>
       <c r="M73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>571.00181898400001</v>
       </c>
-    </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <f t="shared" si="15"/>
+        <v>734.01818101599997</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J74">
         <v>572</v>
       </c>
       <c r="K74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.184799999999996</v>
       </c>
       <c r="L74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.19542719999999991</v>
       </c>
       <c r="M74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>572.00181068799998</v>
       </c>
-    </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <f t="shared" si="15"/>
+        <v>733.018189312</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J75">
         <v>573</v>
       </c>
       <c r="K75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.045699999999997</v>
       </c>
       <c r="L75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.19299979999999994</v>
       </c>
       <c r="M75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>573.00180239200006</v>
       </c>
-    </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <f t="shared" si="15"/>
+        <v>732.01819760799992</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J76">
         <v>574</v>
       </c>
       <c r="K76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.906599999999997</v>
       </c>
       <c r="L76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.19057239999999998</v>
       </c>
       <c r="M76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>574.00179409600003</v>
       </c>
-    </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <f t="shared" si="15"/>
+        <v>731.01820590399996</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J77">
         <v>575</v>
       </c>
       <c r="K77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.767499999999998</v>
       </c>
       <c r="L77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.18814500000000001</v>
       </c>
       <c r="M77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>575.00178579999999</v>
       </c>
-    </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <f t="shared" si="15"/>
+        <v>730.01821419999999</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J78">
         <v>576</v>
       </c>
       <c r="K78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.628399999999999</v>
       </c>
       <c r="L78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.18571760000000004</v>
       </c>
       <c r="M78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>576.00177750399996</v>
       </c>
-    </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <f t="shared" si="15"/>
+        <v>729.01822249600002</v>
+      </c>
+    </row>
+    <row r="79" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J79">
         <v>577</v>
       </c>
       <c r="K79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.4893</v>
       </c>
       <c r="L79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.18329020000000007</v>
       </c>
       <c r="M79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>577.00176920799993</v>
       </c>
-    </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <f t="shared" si="15"/>
+        <v>728.01823079200005</v>
+      </c>
+    </row>
+    <row r="80" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J80">
         <v>578</v>
       </c>
       <c r="K80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.350200000000001</v>
       </c>
       <c r="L80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1808628000000001</v>
       </c>
       <c r="M80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>578.00176091200001</v>
       </c>
-    </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <f t="shared" si="15"/>
+        <v>727.01823908799997</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J81">
         <v>579</v>
       </c>
       <c r="K81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.211100000000002</v>
       </c>
       <c r="L81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.17843539999999991</v>
       </c>
       <c r="M81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>579.00175261599998</v>
       </c>
-    </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <f t="shared" si="15"/>
+        <v>726.01824738400001</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J82">
         <v>580</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.072000000000003</v>
       </c>
       <c r="L82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.17600799999999994</v>
       </c>
       <c r="M82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>580.00174432000006</v>
       </c>
-    </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <f t="shared" si="15"/>
+        <v>725.01825567999992</v>
+      </c>
+    </row>
+    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J83">
         <v>581</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9329000000000036</v>
       </c>
       <c r="L83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.17358059999999997</v>
       </c>
       <c r="M83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>581.00173602400002</v>
       </c>
-    </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <f t="shared" si="15"/>
+        <v>724.01826397599996</v>
+      </c>
+    </row>
+    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J84">
         <v>582</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.7938000000000045</v>
       </c>
       <c r="L84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.17115320000000001</v>
       </c>
       <c r="M84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>582.00172772799999</v>
       </c>
-    </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <f t="shared" si="15"/>
+        <v>723.01827227199999</v>
+      </c>
+    </row>
+    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J85">
         <v>583</v>
       </c>
       <c r="K85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6547000000000054</v>
       </c>
       <c r="L85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.16872580000000004</v>
       </c>
       <c r="M85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>583.00171943199996</v>
       </c>
-    </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <f t="shared" si="15"/>
+        <v>722.01828056800002</v>
+      </c>
+    </row>
+    <row r="86" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J86">
         <v>584</v>
       </c>
       <c r="K86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.5156000000000063</v>
       </c>
       <c r="L86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.16629840000000007</v>
       </c>
       <c r="M86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>584.00171113599993</v>
       </c>
-    </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <f t="shared" si="15"/>
+        <v>721.01828886400006</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J87">
         <v>585</v>
       </c>
       <c r="K87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.376499999999993</v>
       </c>
       <c r="L87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1638710000000001</v>
       </c>
       <c r="M87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>585.00170284000001</v>
       </c>
-    </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <f t="shared" si="15"/>
+        <v>720.01829715999997</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J88">
         <v>586</v>
       </c>
       <c r="K88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2373999999999938</v>
       </c>
       <c r="L88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.16144359999999991</v>
       </c>
       <c r="M88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>586.00169454399997</v>
       </c>
-    </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <f t="shared" si="15"/>
+        <v>719.01830545600001</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J89">
         <v>587</v>
       </c>
       <c r="K89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.0982999999999947</v>
       </c>
       <c r="L89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.15901619999999994</v>
       </c>
       <c r="M89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>587.00168624800006</v>
       </c>
-    </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <f t="shared" si="15"/>
+        <v>718.01831375199993</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J90">
         <v>588</v>
       </c>
       <c r="K90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9591999999999956</v>
       </c>
       <c r="L90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.15658879999999997</v>
       </c>
       <c r="M90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>588.00167795200002</v>
       </c>
-    </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <f t="shared" si="15"/>
+        <v>717.01832204799996</v>
+      </c>
+    </row>
+    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J91">
         <v>589</v>
       </c>
       <c r="K91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.8200999999999965</v>
       </c>
       <c r="L91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1541614</v>
       </c>
       <c r="M91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>589.00166965599999</v>
       </c>
-    </row>
-    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <f t="shared" si="15"/>
+        <v>716.01833034399999</v>
+      </c>
+    </row>
+    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J92">
         <v>590</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.6809999999999974</v>
       </c>
       <c r="L92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.15173400000000004</v>
       </c>
       <c r="M92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>590.00166135999996</v>
       </c>
-    </row>
-    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <f t="shared" si="15"/>
+        <v>715.01833864000002</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J93">
         <v>591</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.5418999999999983</v>
       </c>
       <c r="L93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.14930660000000007</v>
       </c>
       <c r="M93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>591.00165306399992</v>
       </c>
-    </row>
-    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <f t="shared" si="15"/>
+        <v>714.01834693600006</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J94">
         <v>592</v>
       </c>
       <c r="K94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.4027999999999992</v>
       </c>
       <c r="L94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1468792000000001</v>
       </c>
       <c r="M94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>592.00164476800001</v>
       </c>
-    </row>
-    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <f t="shared" si="15"/>
+        <v>713.01835523199998</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J95">
         <v>593</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.2637</v>
       </c>
       <c r="L95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.14445179999999991</v>
       </c>
       <c r="M95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>593.00163647199997</v>
       </c>
-    </row>
-    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <f t="shared" si="15"/>
+        <v>712.01836352800001</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J96">
         <v>594</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1246000000000009</v>
       </c>
       <c r="L96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.14202439999999994</v>
       </c>
       <c r="M96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>594.00162817600005</v>
       </c>
-    </row>
-    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <f t="shared" si="15"/>
+        <v>711.01837182399993</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J97">
         <v>595</v>
       </c>
       <c r="K97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9855000000000018</v>
       </c>
       <c r="L97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.13959699999999997</v>
       </c>
       <c r="M97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>595.00161988000002</v>
       </c>
-    </row>
-    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <f t="shared" si="15"/>
+        <v>710.01838011999996</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J98">
         <v>596</v>
       </c>
       <c r="K98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8464000000000027</v>
       </c>
       <c r="L98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1371696</v>
       </c>
       <c r="M98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>596.00161158399999</v>
       </c>
-    </row>
-    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <f t="shared" si="15"/>
+        <v>709.01838841599999</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J99">
         <v>597</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7073000000000036</v>
       </c>
       <c r="L99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.13474220000000003</v>
       </c>
       <c r="M99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>597.00160328799996</v>
       </c>
-    </row>
-    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <f t="shared" si="15"/>
+        <v>708.01839671200003</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J100">
         <v>598</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5682000000000045</v>
       </c>
       <c r="L100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.13231480000000007</v>
       </c>
       <c r="M100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>598.00159499199992</v>
       </c>
-    </row>
-    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <f t="shared" si="15"/>
+        <v>707.01840500800006</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J101">
         <v>599</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4291000000000054</v>
       </c>
       <c r="L101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1298874000000001</v>
       </c>
       <c r="M101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>599.001586696</v>
       </c>
-    </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <f t="shared" si="15"/>
+        <v>706.01841330399998</v>
+      </c>
+    </row>
+    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J102">
         <v>600</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.289999999999992</v>
       </c>
       <c r="L102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.12745999999999991</v>
       </c>
       <c r="M102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600.00157840000008</v>
       </c>
-    </row>
-    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <f t="shared" si="15"/>
+        <v>705.0184215999999</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J103">
         <v>601</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1508999999999929</v>
       </c>
       <c r="L103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.12503259999999994</v>
       </c>
       <c r="M103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>601.00157010400005</v>
       </c>
-    </row>
-    <row r="104" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <f t="shared" si="15"/>
+        <v>704.01842989599993</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J104">
         <v>602</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0117999999999938</v>
       </c>
       <c r="L104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.12260519999999997</v>
       </c>
       <c r="M104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>602.00156180800002</v>
       </c>
-    </row>
-    <row r="105" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <f t="shared" si="15"/>
+        <v>703.01843819199996</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J105">
         <v>603</v>
       </c>
       <c r="K105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8726999999999947</v>
       </c>
       <c r="L105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1201778</v>
       </c>
       <c r="M105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>603.00155351199999</v>
       </c>
-    </row>
-    <row r="106" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <f t="shared" si="15"/>
+        <v>702.018446488</v>
+      </c>
+    </row>
+    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J106">
         <v>604</v>
       </c>
       <c r="K106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.7335999999999956</v>
       </c>
       <c r="L106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.11775040000000003</v>
       </c>
       <c r="M106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>604.00154521599995</v>
       </c>
-    </row>
-    <row r="107" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <f t="shared" si="15"/>
+        <v>701.01845478400003</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J107">
         <v>605</v>
       </c>
       <c r="K107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.5944999999999965</v>
       </c>
       <c r="L107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.11532300000000006</v>
       </c>
       <c r="M107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>605.00153691999992</v>
       </c>
-    </row>
-    <row r="108" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <f t="shared" si="15"/>
+        <v>700.01846308000006</v>
+      </c>
+    </row>
+    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J108">
         <v>606</v>
       </c>
       <c r="K108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.4553999999999974</v>
       </c>
       <c r="L108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.1128956000000001</v>
       </c>
       <c r="M108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>606.001528624</v>
       </c>
-    </row>
-    <row r="109" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <f t="shared" si="15"/>
+        <v>699.01847137599998</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J109">
         <v>607</v>
       </c>
       <c r="K109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.3162999999999982</v>
       </c>
       <c r="L109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.11046819999999991</v>
       </c>
       <c r="M109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>607.00152032800008</v>
       </c>
-    </row>
-    <row r="110" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <f t="shared" si="15"/>
+        <v>698.0184796719999</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J110">
         <v>608</v>
       </c>
       <c r="K110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.1771999999999991</v>
       </c>
       <c r="L110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.10804079999999994</v>
       </c>
       <c r="M110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>608.00151203200005</v>
       </c>
-    </row>
-    <row r="111" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <f t="shared" si="15"/>
+        <v>697.01848796799993</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J111">
         <v>609</v>
       </c>
       <c r="K111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.0381</v>
       </c>
       <c r="L111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.10561339999999997</v>
       </c>
       <c r="M111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>609.00150373600002</v>
       </c>
-    </row>
-    <row r="112" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N111">
+        <f t="shared" si="15"/>
+        <v>696.01849626399996</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J112">
         <v>610</v>
       </c>
       <c r="K112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.8990000000000009</v>
       </c>
       <c r="L112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.103186</v>
       </c>
       <c r="M112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>610.00149543999999</v>
       </c>
-    </row>
-    <row r="113" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N112">
+        <f t="shared" si="15"/>
+        <v>695.01850456</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J113">
         <v>611</v>
       </c>
       <c r="K113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.7599000000000018</v>
       </c>
       <c r="L113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.10075860000000003</v>
       </c>
       <c r="M113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>611.00148714399995</v>
       </c>
-    </row>
-    <row r="114" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N113">
+        <f t="shared" si="15"/>
+        <v>694.01851285600003</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J114">
         <v>612</v>
       </c>
       <c r="K114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6208000000000027</v>
       </c>
       <c r="L114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.8331200000000063E-2</v>
       </c>
       <c r="M114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>612.00147884799992</v>
       </c>
-    </row>
-    <row r="115" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N114">
+        <f t="shared" si="15"/>
+        <v>693.01852115200006</v>
+      </c>
+    </row>
+    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J115">
         <v>613</v>
       </c>
       <c r="K115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4817000000000036</v>
       </c>
       <c r="L115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.5903800000000095E-2</v>
       </c>
       <c r="M115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>613.001470552</v>
       </c>
-    </row>
-    <row r="116" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N115">
+        <f t="shared" si="15"/>
+        <v>692.01852944799998</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J116">
         <v>614</v>
       </c>
       <c r="K116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3426000000000045</v>
       </c>
       <c r="L116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.3476399999999904E-2</v>
       </c>
       <c r="M116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>614.00146225600008</v>
       </c>
-    </row>
-    <row r="117" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N116">
+        <f t="shared" si="15"/>
+        <v>691.0185377439999</v>
+      </c>
+    </row>
+    <row r="117" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J117">
         <v>615</v>
       </c>
       <c r="K117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.2035000000000053</v>
       </c>
       <c r="L117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.1048999999999936E-2</v>
       </c>
       <c r="M117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>615.00145396000005</v>
       </c>
-    </row>
-    <row r="118" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N117">
+        <f t="shared" si="15"/>
+        <v>690.01854603999993</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J118">
         <v>616</v>
       </c>
       <c r="K118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.0644000000000062</v>
       </c>
       <c r="L118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.8621599999999967E-2</v>
       </c>
       <c r="M118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>616.00144566400002</v>
       </c>
-    </row>
-    <row r="119" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N118">
+        <f t="shared" si="15"/>
+        <v>689.01855433599997</v>
+      </c>
+    </row>
+    <row r="119" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J119">
         <v>617</v>
       </c>
       <c r="K119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9252999999999929</v>
       </c>
       <c r="L119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.6194199999999999E-2</v>
       </c>
       <c r="M119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>617.00143736799998</v>
       </c>
-    </row>
-    <row r="120" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N119">
+        <f t="shared" si="15"/>
+        <v>688.018562632</v>
+      </c>
+    </row>
+    <row r="120" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J120">
         <v>618</v>
       </c>
       <c r="K120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.7861999999999938</v>
       </c>
       <c r="L120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.376680000000003E-2</v>
       </c>
       <c r="M120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>618.00142907199995</v>
       </c>
-    </row>
-    <row r="121" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N120">
+        <f t="shared" si="15"/>
+        <v>687.01857092800003</v>
+      </c>
+    </row>
+    <row r="121" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J121">
         <v>619</v>
       </c>
       <c r="K121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6470999999999947</v>
       </c>
       <c r="L121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.1339400000000062E-2</v>
       </c>
       <c r="M121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>619.00142077599992</v>
       </c>
-    </row>
-    <row r="122" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N121">
+        <f t="shared" si="15"/>
+        <v>686.01857922400006</v>
+      </c>
+    </row>
+    <row r="122" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J122">
         <v>620</v>
       </c>
       <c r="K122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5079999999999956</v>
       </c>
       <c r="L122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.8912000000000093E-2</v>
       </c>
       <c r="M122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>620.00141248</v>
       </c>
-    </row>
-    <row r="123" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N122">
+        <f t="shared" si="15"/>
+        <v>685.01858751999998</v>
+      </c>
+    </row>
+    <row r="123" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J123">
         <v>621</v>
       </c>
       <c r="K123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.3688999999999965</v>
       </c>
       <c r="L123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.6484599999999903E-2</v>
       </c>
       <c r="M123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>621.00140418400008</v>
       </c>
-    </row>
-    <row r="124" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N123">
+        <f t="shared" si="15"/>
+        <v>684.0185958159999</v>
+      </c>
+    </row>
+    <row r="124" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J124">
         <v>622</v>
       </c>
       <c r="K124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2297999999999973</v>
       </c>
       <c r="L124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.4057199999999934E-2</v>
       </c>
       <c r="M124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>622.00139588800005</v>
       </c>
-    </row>
-    <row r="125" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N124">
+        <f t="shared" si="15"/>
+        <v>683.01860411199993</v>
+      </c>
+    </row>
+    <row r="125" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J125">
         <v>623</v>
       </c>
       <c r="K125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.0906999999999982</v>
       </c>
       <c r="L125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-7.1629799999999966E-2</v>
       </c>
       <c r="M125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>623.00138759200001</v>
       </c>
-    </row>
-    <row r="126" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N125">
+        <f t="shared" si="15"/>
+        <v>682.01861240799997</v>
+      </c>
+    </row>
+    <row r="126" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J126">
         <v>624</v>
       </c>
       <c r="K126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9515999999999991</v>
       </c>
       <c r="L126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.9202399999999997E-2</v>
       </c>
       <c r="M126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>624.00137929599998</v>
       </c>
-    </row>
-    <row r="127" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N126">
+        <f t="shared" si="15"/>
+        <v>681.018620704</v>
+      </c>
+    </row>
+    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J127">
         <v>625</v>
       </c>
       <c r="K127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8125</v>
       </c>
       <c r="L127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.6775000000000029E-2</v>
       </c>
       <c r="M127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>625.00137099999995</v>
       </c>
-    </row>
-    <row r="128" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N127">
+        <f t="shared" si="15"/>
+        <v>680.01862900000003</v>
+      </c>
+    </row>
+    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J128">
         <v>626</v>
       </c>
       <c r="K128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6734000000000009</v>
       </c>
       <c r="L128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.434760000000006E-2</v>
       </c>
       <c r="M128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>626.00136270399992</v>
       </c>
-    </row>
-    <row r="129" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N128">
+        <f t="shared" si="15"/>
+        <v>679.01863729600007</v>
+      </c>
+    </row>
+    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J129">
         <v>627</v>
       </c>
       <c r="K129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.5343000000000018</v>
       </c>
       <c r="L129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.1920200000000092E-2</v>
       </c>
       <c r="M129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>627.001354408</v>
       </c>
-    </row>
-    <row r="130" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N129">
+        <f t="shared" si="15"/>
+        <v>678.01864559199998</v>
+      </c>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J130">
         <v>628</v>
       </c>
       <c r="K130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3952000000000027</v>
       </c>
       <c r="L130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-5.9492799999999901E-2</v>
       </c>
       <c r="M130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>628.00134611200008</v>
       </c>
-    </row>
-    <row r="131" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N130">
+        <f t="shared" si="15"/>
+        <v>677.0186538879999</v>
+      </c>
+    </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J131">
         <v>629</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="14">-0.1391*J131+90.75</f>
+        <f t="shared" ref="K131:K194" si="16">-0.1391*J131+90.75</f>
         <v>3.2561000000000035</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L194" si="15">(0.0024274*J131-1.5839)</f>
+        <f t="shared" ref="L131:L194" si="17">(0.0024274*J131-1.5839)</f>
         <v>-5.7065399999999933E-2</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="16">411.96*L131+652.51</f>
+        <f t="shared" ref="M131:M194" si="18">411.96*L131+652.51</f>
         <v>629.00133781600005</v>
       </c>
-    </row>
-    <row r="132" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="19">-411.96*L131+652.51</f>
+        <v>676.01866218399994</v>
+      </c>
+    </row>
+    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J132">
         <v>630</v>
       </c>
       <c r="K132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.1170000000000044</v>
       </c>
       <c r="L132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-5.4637999999999964E-2</v>
       </c>
       <c r="M132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>630.00132952000001</v>
       </c>
-    </row>
-    <row r="133" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N132">
+        <f t="shared" si="19"/>
+        <v>675.01867047999997</v>
+      </c>
+    </row>
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J133">
         <v>631</v>
       </c>
       <c r="K133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9779000000000053</v>
       </c>
       <c r="L133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-5.2210599999999996E-2</v>
       </c>
       <c r="M133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>631.00132122399998</v>
       </c>
-    </row>
-    <row r="134" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N133">
+        <f t="shared" si="19"/>
+        <v>674.018678776</v>
+      </c>
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J134">
         <v>632</v>
       </c>
       <c r="K134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.838799999999992</v>
       </c>
       <c r="L134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.9783200000000027E-2</v>
       </c>
       <c r="M134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>632.00131292799995</v>
       </c>
-    </row>
-    <row r="135" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N134">
+        <f t="shared" si="19"/>
+        <v>673.01868707200003</v>
+      </c>
+    </row>
+    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J135">
         <v>633</v>
       </c>
       <c r="K135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.6996999999999929</v>
       </c>
       <c r="L135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.7355800000000059E-2</v>
       </c>
       <c r="M135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>633.00130463199991</v>
       </c>
-    </row>
-    <row r="136" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N135">
+        <f t="shared" si="19"/>
+        <v>672.01869536800007</v>
+      </c>
+    </row>
+    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J136">
         <v>634</v>
       </c>
       <c r="K136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.5605999999999938</v>
       </c>
       <c r="L136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.492840000000009E-2</v>
       </c>
       <c r="M136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>634.001296336</v>
       </c>
-    </row>
-    <row r="137" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N136">
+        <f t="shared" si="19"/>
+        <v>671.01870366399999</v>
+      </c>
+    </row>
+    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J137">
         <v>635</v>
       </c>
       <c r="K137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4214999999999947</v>
       </c>
       <c r="L137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.25009999999999E-2</v>
       </c>
       <c r="M137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>635.00128804000008</v>
       </c>
-    </row>
-    <row r="138" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N137">
+        <f t="shared" si="19"/>
+        <v>670.01871195999991</v>
+      </c>
+    </row>
+    <row r="138" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J138">
         <v>636</v>
       </c>
       <c r="K138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.2823999999999955</v>
       </c>
       <c r="L138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.0073599999999931E-2</v>
       </c>
       <c r="M138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>636.00127974400004</v>
       </c>
-    </row>
-    <row r="139" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N138">
+        <f t="shared" si="19"/>
+        <v>669.01872025599994</v>
+      </c>
+    </row>
+    <row r="139" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J139">
         <v>637</v>
       </c>
       <c r="K139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.1432999999999964</v>
       </c>
       <c r="L139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.7646199999999963E-2</v>
       </c>
       <c r="M139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>637.00127144800001</v>
       </c>
-    </row>
-    <row r="140" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N139">
+        <f t="shared" si="19"/>
+        <v>668.01872855199997</v>
+      </c>
+    </row>
+    <row r="140" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J140">
         <v>638</v>
       </c>
       <c r="K140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.0041999999999973</v>
       </c>
       <c r="L140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.5218799999999995E-2</v>
       </c>
       <c r="M140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>638.00126315199998</v>
       </c>
-    </row>
-    <row r="141" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N140">
+        <f t="shared" si="19"/>
+        <v>667.018736848</v>
+      </c>
+    </row>
+    <row r="141" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J141">
         <v>639</v>
       </c>
       <c r="K141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8650999999999982</v>
       </c>
       <c r="L141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.2791400000000026E-2</v>
       </c>
       <c r="M141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>639.00125485599995</v>
       </c>
-    </row>
-    <row r="142" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N141">
+        <f t="shared" si="19"/>
+        <v>666.01874514400004</v>
+      </c>
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J142">
         <v>640</v>
       </c>
       <c r="K142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.7259999999999991</v>
       </c>
       <c r="L142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.0364000000000058E-2</v>
       </c>
       <c r="M142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>640.00124655999991</v>
       </c>
-    </row>
-    <row r="143" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N142">
+        <f t="shared" si="19"/>
+        <v>665.01875344000007</v>
+      </c>
+    </row>
+    <row r="143" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J143">
         <v>641</v>
       </c>
       <c r="K143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.5869</v>
       </c>
       <c r="L143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.7936600000000089E-2</v>
       </c>
       <c r="M143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>641.00123826399999</v>
       </c>
-    </row>
-    <row r="144" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N143">
+        <f t="shared" si="19"/>
+        <v>664.01876173599999</v>
+      </c>
+    </row>
+    <row r="144" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J144">
         <v>642</v>
       </c>
       <c r="K144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4478000000000009</v>
       </c>
       <c r="L144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.5509199999999899E-2</v>
       </c>
       <c r="M144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>642.00122996800008</v>
       </c>
-    </row>
-    <row r="145" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N144">
+        <f t="shared" si="19"/>
+        <v>663.01877003199991</v>
+      </c>
+    </row>
+    <row r="145" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J145">
         <v>643</v>
       </c>
       <c r="K145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3087000000000018</v>
       </c>
       <c r="L145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.308179999999993E-2</v>
       </c>
       <c r="M145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>643.00122167200004</v>
       </c>
-    </row>
-    <row r="146" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N145">
+        <f t="shared" si="19"/>
+        <v>662.01877832799994</v>
+      </c>
+    </row>
+    <row r="146" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J146">
         <v>644</v>
       </c>
       <c r="K146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.1696000000000026</v>
       </c>
       <c r="L146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0654399999999962E-2</v>
       </c>
       <c r="M146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>644.00121337600001</v>
       </c>
-    </row>
-    <row r="147" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N146">
+        <f t="shared" si="19"/>
+        <v>661.01878662399997</v>
+      </c>
+    </row>
+    <row r="147" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J147">
         <v>645</v>
       </c>
       <c r="K147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0305000000000035</v>
       </c>
       <c r="L147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.8226999999999993E-2</v>
       </c>
       <c r="M147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>645.00120507999998</v>
       </c>
-    </row>
-    <row r="148" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N147">
+        <f t="shared" si="19"/>
+        <v>660.01879492</v>
+      </c>
+    </row>
+    <row r="148" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J148">
         <v>646</v>
       </c>
       <c r="K148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.89140000000000441</v>
       </c>
       <c r="L148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.5799600000000025E-2</v>
       </c>
       <c r="M148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>646.00119678399994</v>
       </c>
-    </row>
-    <row r="149" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N148">
+        <f t="shared" si="19"/>
+        <v>659.01880321600004</v>
+      </c>
+    </row>
+    <row r="149" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J149">
         <v>647</v>
       </c>
       <c r="K149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.7523000000000053</v>
       </c>
       <c r="L149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.3372200000000056E-2</v>
       </c>
       <c r="M149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>647.00118848800003</v>
       </c>
-    </row>
-    <row r="150" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N149">
+        <f t="shared" si="19"/>
+        <v>658.01881151199996</v>
+      </c>
+    </row>
+    <row r="150" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J150">
         <v>648</v>
       </c>
       <c r="K150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.61320000000000618</v>
       </c>
       <c r="L150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.0944800000000088E-2</v>
       </c>
       <c r="M150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>648.00118019199999</v>
       </c>
-    </row>
-    <row r="151" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N150">
+        <f t="shared" si="19"/>
+        <v>657.01881980799999</v>
+      </c>
+    </row>
+    <row r="151" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J151">
         <v>649</v>
       </c>
       <c r="K151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.47409999999999286</v>
       </c>
       <c r="L151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-8.5173999999998973E-3</v>
       </c>
       <c r="M151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>649.00117189600007</v>
       </c>
-    </row>
-    <row r="152" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N151">
+        <f t="shared" si="19"/>
+        <v>656.01882810399991</v>
+      </c>
+    </row>
+    <row r="152" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J152">
         <v>650</v>
       </c>
       <c r="K152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.33499999999999375</v>
       </c>
       <c r="L152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-6.0899999999999288E-3</v>
       </c>
       <c r="M152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>650.00116360000004</v>
       </c>
-    </row>
-    <row r="153" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N152">
+        <f t="shared" si="19"/>
+        <v>655.01883639999994</v>
+      </c>
+    </row>
+    <row r="153" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J153">
         <v>651</v>
       </c>
       <c r="K153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.19589999999999463</v>
       </c>
       <c r="L153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.6625999999999603E-3</v>
       </c>
       <c r="M153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>651.00115530400001</v>
       </c>
-    </row>
-    <row r="154" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N153">
+        <f t="shared" si="19"/>
+        <v>654.01884469599997</v>
+      </c>
+    </row>
+    <row r="154" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J154">
         <v>652</v>
       </c>
       <c r="K154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.6799999999995521E-2</v>
       </c>
       <c r="L154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.2351999999999919E-3</v>
       </c>
       <c r="M154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>652.00114700799998</v>
       </c>
-    </row>
-    <row r="155" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N154">
+        <f t="shared" si="19"/>
+        <v>653.01885299200001</v>
+      </c>
+    </row>
+    <row r="155" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J155">
         <v>653</v>
       </c>
       <c r="K155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-8.2300000000003593E-2</v>
       </c>
       <c r="L155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1921999999999766E-3</v>
       </c>
       <c r="M155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>653.00113871199994</v>
       </c>
-    </row>
-    <row r="156" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N155">
+        <f t="shared" si="19"/>
+        <v>652.01886128800004</v>
+      </c>
+    </row>
+    <row r="156" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J156">
         <v>654</v>
       </c>
       <c r="K156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.22140000000000271</v>
       </c>
       <c r="L156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.6195999999999451E-3</v>
       </c>
       <c r="M156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>654.00113041600002</v>
       </c>
-    </row>
-    <row r="157" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N156">
+        <f t="shared" si="19"/>
+        <v>651.01886958399996</v>
+      </c>
+    </row>
+    <row r="157" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J157">
         <v>655</v>
       </c>
       <c r="K157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.36050000000000182</v>
       </c>
       <c r="L157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0469999999999136E-3</v>
       </c>
       <c r="M157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>655.00112211999999</v>
       </c>
-    </row>
-    <row r="158" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N157">
+        <f t="shared" si="19"/>
+        <v>650.01887787999999</v>
+      </c>
+    </row>
+    <row r="158" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J158">
         <v>656</v>
       </c>
       <c r="K158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.49960000000000093</v>
       </c>
       <c r="L158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.4744000000001041E-3</v>
       </c>
       <c r="M158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>656.00111382400007</v>
       </c>
-    </row>
-    <row r="159" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N158">
+        <f t="shared" si="19"/>
+        <v>649.01888617599991</v>
+      </c>
+    </row>
+    <row r="159" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J159">
         <v>657</v>
       </c>
       <c r="K159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.63870000000000005</v>
       </c>
       <c r="L159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0901800000000073E-2</v>
       </c>
       <c r="M159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>657.00110552800004</v>
       </c>
-    </row>
-    <row r="160" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N159">
+        <f t="shared" si="19"/>
+        <v>648.01889447199994</v>
+      </c>
+    </row>
+    <row r="160" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J160">
         <v>658</v>
       </c>
       <c r="K160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.77779999999999916</v>
       </c>
       <c r="L160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3329200000000041E-2</v>
       </c>
       <c r="M160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>658.00109723200001</v>
       </c>
-    </row>
-    <row r="161" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N160">
+        <f t="shared" si="19"/>
+        <v>647.01890276799998</v>
+      </c>
+    </row>
+    <row r="161" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J161">
         <v>659</v>
       </c>
       <c r="K161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.91689999999999827</v>
       </c>
       <c r="L161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5756600000000009E-2</v>
       </c>
       <c r="M161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>659.00108893599997</v>
       </c>
-    </row>
-    <row r="162" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N161">
+        <f t="shared" si="19"/>
+        <v>646.01891106400001</v>
+      </c>
+    </row>
+    <row r="162" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J162">
         <v>660</v>
       </c>
       <c r="K162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.0559999999999974</v>
       </c>
       <c r="L162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8183999999999978E-2</v>
       </c>
       <c r="M162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>660.00108063999994</v>
       </c>
-    </row>
-    <row r="163" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N162">
+        <f t="shared" si="19"/>
+        <v>645.01891936000004</v>
+      </c>
+    </row>
+    <row r="163" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J163">
         <v>661</v>
       </c>
       <c r="K163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.1950999999999965</v>
       </c>
       <c r="L163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0611399999999946E-2</v>
       </c>
       <c r="M163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>661.00107234400002</v>
       </c>
-    </row>
-    <row r="164" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N163">
+        <f t="shared" si="19"/>
+        <v>644.01892765599996</v>
+      </c>
+    </row>
+    <row r="164" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J164">
         <v>662</v>
       </c>
       <c r="K164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.3341999999999956</v>
       </c>
       <c r="L164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3038799999999915E-2</v>
       </c>
       <c r="M164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>662.00106404799999</v>
       </c>
-    </row>
-    <row r="165" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N164">
+        <f t="shared" si="19"/>
+        <v>643.01893595199999</v>
+      </c>
+    </row>
+    <row r="165" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J165">
         <v>663</v>
       </c>
       <c r="K165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.4732999999999947</v>
       </c>
       <c r="L165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.5466200000000105E-2</v>
       </c>
       <c r="M165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>663.00105575200007</v>
       </c>
-    </row>
-    <row r="166" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N165">
+        <f t="shared" si="19"/>
+        <v>642.01894424799991</v>
+      </c>
+    </row>
+    <row r="166" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J166">
         <v>664</v>
       </c>
       <c r="K166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.612400000000008</v>
       </c>
       <c r="L166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7893600000000074E-2</v>
       </c>
       <c r="M166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>664.00104745600004</v>
       </c>
-    </row>
-    <row r="167" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N166">
+        <f t="shared" si="19"/>
+        <v>641.01895254399994</v>
+      </c>
+    </row>
+    <row r="167" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J167">
         <v>665</v>
       </c>
       <c r="K167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.7515000000000072</v>
       </c>
       <c r="L167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.0321000000000042E-2</v>
       </c>
       <c r="M167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>665.00103916</v>
       </c>
-    </row>
-    <row r="168" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N167">
+        <f t="shared" si="19"/>
+        <v>640.01896083999998</v>
+      </c>
+    </row>
+    <row r="168" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J168">
         <v>666</v>
       </c>
       <c r="K168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.8906000000000063</v>
       </c>
       <c r="L168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.2748400000000011E-2</v>
       </c>
       <c r="M168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>666.00103086399997</v>
       </c>
-    </row>
-    <row r="169" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N168">
+        <f t="shared" si="19"/>
+        <v>639.01896913600001</v>
+      </c>
+    </row>
+    <row r="169" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J169">
         <v>667</v>
       </c>
       <c r="K169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.0297000000000054</v>
       </c>
       <c r="L169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5175799999999979E-2</v>
       </c>
       <c r="M169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>667.00102256799994</v>
       </c>
-    </row>
-    <row r="170" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N169">
+        <f t="shared" si="19"/>
+        <v>638.01897743200004</v>
+      </c>
+    </row>
+    <row r="170" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J170">
         <v>668</v>
       </c>
       <c r="K170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.1688000000000045</v>
       </c>
       <c r="L170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.7603199999999948E-2</v>
       </c>
       <c r="M170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>668.00101427200002</v>
       </c>
-    </row>
-    <row r="171" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N170">
+        <f t="shared" si="19"/>
+        <v>637.01898572799996</v>
+      </c>
+    </row>
+    <row r="171" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J171">
         <v>669</v>
       </c>
       <c r="K171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.3079000000000036</v>
       </c>
       <c r="L171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.0030599999999916E-2</v>
       </c>
       <c r="M171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>669.00100597599999</v>
       </c>
-    </row>
-    <row r="172" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N171">
+        <f t="shared" si="19"/>
+        <v>636.01899402399999</v>
+      </c>
+    </row>
+    <row r="172" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J172">
         <v>670</v>
       </c>
       <c r="K172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.4470000000000027</v>
       </c>
       <c r="L172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.2458000000000107E-2</v>
       </c>
       <c r="M172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>670.00099768000007</v>
       </c>
-    </row>
-    <row r="173" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N172">
+        <f t="shared" si="19"/>
+        <v>635.01900231999991</v>
+      </c>
+    </row>
+    <row r="173" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J173">
         <v>671</v>
       </c>
       <c r="K173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.5861000000000018</v>
       </c>
       <c r="L173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.4885400000000075E-2</v>
       </c>
       <c r="M173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>671.00098938400004</v>
       </c>
-    </row>
-    <row r="174" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N173">
+        <f t="shared" si="19"/>
+        <v>634.01901061599995</v>
+      </c>
+    </row>
+    <row r="174" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J174">
         <v>672</v>
       </c>
       <c r="K174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.725200000000001</v>
       </c>
       <c r="L174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7312800000000044E-2</v>
       </c>
       <c r="M174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>672.000981088</v>
       </c>
-    </row>
-    <row r="175" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N174">
+        <f t="shared" si="19"/>
+        <v>633.01901891199998</v>
+      </c>
+    </row>
+    <row r="175" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J175">
         <v>673</v>
       </c>
       <c r="K175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.8643000000000001</v>
       </c>
       <c r="L175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9740200000000012E-2</v>
       </c>
       <c r="M175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>673.00097279199997</v>
       </c>
-    </row>
-    <row r="176" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N175">
+        <f t="shared" si="19"/>
+        <v>632.01902720800001</v>
+      </c>
+    </row>
+    <row r="176" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J176">
         <v>674</v>
       </c>
       <c r="K176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.0033999999999992</v>
       </c>
       <c r="L176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.2167599999999981E-2</v>
       </c>
       <c r="M176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>674.00096449599994</v>
       </c>
-    </row>
-    <row r="177" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N176">
+        <f t="shared" si="19"/>
+        <v>631.01903550400004</v>
+      </c>
+    </row>
+    <row r="177" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J177">
         <v>675</v>
       </c>
       <c r="K177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.1424999999999983</v>
       </c>
       <c r="L177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.4594999999999949E-2</v>
       </c>
       <c r="M177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>675.00095620000002</v>
       </c>
-    </row>
-    <row r="178" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N177">
+        <f t="shared" si="19"/>
+        <v>630.01904379999996</v>
+      </c>
+    </row>
+    <row r="178" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J178">
         <v>676</v>
       </c>
       <c r="K178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.2815999999999974</v>
       </c>
       <c r="L178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7022399999999918E-2</v>
       </c>
       <c r="M178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>676.00094790399999</v>
       </c>
-    </row>
-    <row r="179" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N178">
+        <f t="shared" si="19"/>
+        <v>629.019052096</v>
+      </c>
+    </row>
+    <row r="179" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J179">
         <v>677</v>
       </c>
       <c r="K179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.4206999999999965</v>
       </c>
       <c r="L179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9449800000000108E-2</v>
       </c>
       <c r="M179">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>677.00093960800007</v>
       </c>
-    </row>
-    <row r="180" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N179">
+        <f t="shared" si="19"/>
+        <v>628.01906039199991</v>
+      </c>
+    </row>
+    <row r="180" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J180">
         <v>678</v>
       </c>
       <c r="K180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.5597999999999956</v>
       </c>
       <c r="L180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.1877200000000077E-2</v>
       </c>
       <c r="M180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>678.00093131200003</v>
       </c>
-    </row>
-    <row r="181" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N180">
+        <f t="shared" si="19"/>
+        <v>627.01906868799995</v>
+      </c>
+    </row>
+    <row r="181" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J181">
         <v>679</v>
       </c>
       <c r="K181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.6988999999999947</v>
       </c>
       <c r="L181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.4304600000000045E-2</v>
       </c>
       <c r="M181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>679.000923016</v>
       </c>
-    </row>
-    <row r="182" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N181">
+        <f t="shared" si="19"/>
+        <v>626.01907698399998</v>
+      </c>
+    </row>
+    <row r="182" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J182">
         <v>680</v>
       </c>
       <c r="K182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.8379999999999939</v>
       </c>
       <c r="L182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.6732000000000014E-2</v>
       </c>
       <c r="M182">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>680.00091471999997</v>
       </c>
-    </row>
-    <row r="183" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N182">
+        <f t="shared" si="19"/>
+        <v>625.01908528000001</v>
+      </c>
+    </row>
+    <row r="183" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J183">
         <v>681</v>
       </c>
       <c r="K183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.9771000000000072</v>
       </c>
       <c r="L183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.9159399999999982E-2</v>
       </c>
       <c r="M183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>681.00090642399994</v>
       </c>
-    </row>
-    <row r="184" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N183">
+        <f t="shared" si="19"/>
+        <v>624.01909357600005</v>
+      </c>
+    </row>
+    <row r="184" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J184">
         <v>682</v>
       </c>
       <c r="K184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.1162000000000063</v>
       </c>
       <c r="L184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.158679999999995E-2</v>
       </c>
       <c r="M184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>682.00089812800002</v>
       </c>
-    </row>
-    <row r="185" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N184">
+        <f t="shared" si="19"/>
+        <v>623.01910187199996</v>
+      </c>
+    </row>
+    <row r="185" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J185">
         <v>683</v>
       </c>
       <c r="K185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.2553000000000054</v>
       </c>
       <c r="L185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.4014199999999919E-2</v>
       </c>
       <c r="M185">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>683.00088983199998</v>
       </c>
-    </row>
-    <row r="186" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N185">
+        <f t="shared" si="19"/>
+        <v>622.019110168</v>
+      </c>
+    </row>
+    <row r="186" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J186">
         <v>684</v>
       </c>
       <c r="K186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.3944000000000045</v>
       </c>
       <c r="L186">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.6441600000000109E-2</v>
       </c>
       <c r="M186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>684.00088153600007</v>
       </c>
-    </row>
-    <row r="187" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N186">
+        <f t="shared" si="19"/>
+        <v>621.01911846399992</v>
+      </c>
+    </row>
+    <row r="187" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J187">
         <v>685</v>
       </c>
       <c r="K187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.5335000000000036</v>
       </c>
       <c r="L187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.8869000000000078E-2</v>
       </c>
       <c r="M187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>685.00087324000003</v>
       </c>
-    </row>
-    <row r="188" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N187">
+        <f t="shared" si="19"/>
+        <v>620.01912675999995</v>
+      </c>
+    </row>
+    <row r="188" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J188">
         <v>686</v>
       </c>
       <c r="K188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.6726000000000028</v>
       </c>
       <c r="L188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.1296400000000046E-2</v>
       </c>
       <c r="M188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>686.000864944</v>
       </c>
-    </row>
-    <row r="189" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N188">
+        <f t="shared" si="19"/>
+        <v>619.01913505599998</v>
+      </c>
+    </row>
+    <row r="189" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J189">
         <v>687</v>
       </c>
       <c r="K189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.8117000000000019</v>
       </c>
       <c r="L189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.3723800000000015E-2</v>
       </c>
       <c r="M189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>687.00085664799997</v>
       </c>
-    </row>
-    <row r="190" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N189">
+        <f t="shared" si="19"/>
+        <v>618.01914335200001</v>
+      </c>
+    </row>
+    <row r="190" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J190">
         <v>688</v>
       </c>
       <c r="K190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.950800000000001</v>
       </c>
       <c r="L190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.6151199999999983E-2</v>
       </c>
       <c r="M190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>688.00084835199993</v>
       </c>
-    </row>
-    <row r="191" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N190">
+        <f t="shared" si="19"/>
+        <v>617.01915164800005</v>
+      </c>
+    </row>
+    <row r="191" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J191">
         <v>689</v>
       </c>
       <c r="K191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.0899000000000001</v>
       </c>
       <c r="L191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.8578599999999952E-2</v>
       </c>
       <c r="M191">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>689.00084005600002</v>
       </c>
-    </row>
-    <row r="192" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N191">
+        <f t="shared" si="19"/>
+        <v>616.01915994399997</v>
+      </c>
+    </row>
+    <row r="192" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J192">
         <v>690</v>
       </c>
       <c r="K192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.2289999999999992</v>
       </c>
       <c r="L192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.100599999999992E-2</v>
       </c>
       <c r="M192">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>690.00083175999998</v>
       </c>
-    </row>
-    <row r="193" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N192">
+        <f t="shared" si="19"/>
+        <v>615.01916824</v>
+      </c>
+    </row>
+    <row r="193" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J193">
         <v>691</v>
       </c>
       <c r="K193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.3680999999999983</v>
       </c>
       <c r="L193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.3433400000000111E-2</v>
       </c>
       <c r="M193">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>691.00082346400006</v>
       </c>
-    </row>
-    <row r="194" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N193">
+        <f t="shared" si="19"/>
+        <v>614.01917653599992</v>
+      </c>
+    </row>
+    <row r="194" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J194">
         <v>692</v>
       </c>
       <c r="K194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.5071999999999974</v>
       </c>
       <c r="L194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5860800000000079E-2</v>
       </c>
       <c r="M194">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>692.00081516800003</v>
       </c>
-    </row>
-    <row r="195" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N194">
+        <f t="shared" si="19"/>
+        <v>613.01918483199995</v>
+      </c>
+    </row>
+    <row r="195" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J195">
         <v>693</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="17">-0.1391*J195+90.75</f>
+        <f t="shared" ref="K195:K258" si="20">-0.1391*J195+90.75</f>
         <v>-5.6462999999999965</v>
       </c>
       <c r="L195">
-        <f t="shared" ref="L195:L258" si="18">(0.0024274*J195-1.5839)</f>
+        <f t="shared" ref="L195:L258" si="21">(0.0024274*J195-1.5839)</f>
         <v>9.8288200000000048E-2</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="19">411.96*L195+652.51</f>
+        <f t="shared" ref="M195:M258" si="22">411.96*L195+652.51</f>
         <v>693.000806872</v>
       </c>
-    </row>
-    <row r="196" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N195">
+        <f t="shared" ref="N195:N258" si="23">-411.96*L195+652.51</f>
+        <v>612.01919312799998</v>
+      </c>
+    </row>
+    <row r="196" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J196">
         <v>694</v>
       </c>
       <c r="K196">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-5.7853999999999957</v>
       </c>
       <c r="L196">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.10071560000000002</v>
       </c>
       <c r="M196">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>694.00079857599997</v>
       </c>
-    </row>
-    <row r="197" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N196">
+        <f t="shared" si="23"/>
+        <v>611.01920142400002</v>
+      </c>
+    </row>
+    <row r="197" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J197">
         <v>695</v>
       </c>
       <c r="K197">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-5.9244999999999948</v>
       </c>
       <c r="L197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.10314299999999998</v>
       </c>
       <c r="M197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>695.00079027999993</v>
       </c>
-    </row>
-    <row r="198" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N197">
+        <f t="shared" si="23"/>
+        <v>610.01920972000005</v>
+      </c>
+    </row>
+    <row r="198" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J198">
         <v>696</v>
       </c>
       <c r="K198">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.0636000000000081</v>
       </c>
       <c r="L198">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.10557039999999995</v>
       </c>
       <c r="M198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>696.00078198400001</v>
       </c>
-    </row>
-    <row r="199" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N198">
+        <f t="shared" si="23"/>
+        <v>609.01921801599997</v>
+      </c>
+    </row>
+    <row r="199" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J199">
         <v>697</v>
       </c>
       <c r="K199">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.2027000000000072</v>
       </c>
       <c r="L199">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.10799779999999992</v>
       </c>
       <c r="M199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>697.00077368799998</v>
       </c>
-    </row>
-    <row r="200" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N199">
+        <f t="shared" si="23"/>
+        <v>608.019226312</v>
+      </c>
+    </row>
+    <row r="200" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J200">
         <v>698</v>
       </c>
       <c r="K200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.3418000000000063</v>
       </c>
       <c r="L200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.11042520000000011</v>
       </c>
       <c r="M200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>698.00076539200006</v>
       </c>
-    </row>
-    <row r="201" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N200">
+        <f t="shared" si="23"/>
+        <v>607.01923460799992</v>
+      </c>
+    </row>
+    <row r="201" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J201">
         <v>699</v>
       </c>
       <c r="K201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.4809000000000054</v>
       </c>
       <c r="L201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.11285260000000008</v>
       </c>
       <c r="M201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>699.00075709600003</v>
       </c>
-    </row>
-    <row r="202" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N201">
+        <f t="shared" si="23"/>
+        <v>606.01924290399995</v>
+      </c>
+    </row>
+    <row r="202" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J202">
         <v>700</v>
       </c>
       <c r="K202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.6200000000000045</v>
       </c>
       <c r="L202">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.11528000000000005</v>
       </c>
       <c r="M202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>700.0007488</v>
       </c>
-    </row>
-    <row r="203" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N202">
+        <f t="shared" si="23"/>
+        <v>605.01925119999999</v>
+      </c>
+    </row>
+    <row r="203" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J203">
         <v>701</v>
       </c>
       <c r="K203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.7591000000000037</v>
       </c>
       <c r="L203">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.11770740000000002</v>
       </c>
       <c r="M203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>701.00074050399996</v>
       </c>
-    </row>
-    <row r="204" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N203">
+        <f t="shared" si="23"/>
+        <v>604.01925949600002</v>
+      </c>
+    </row>
+    <row r="204" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J204">
         <v>702</v>
       </c>
       <c r="K204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.8982000000000028</v>
       </c>
       <c r="L204">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.12013479999999999</v>
       </c>
       <c r="M204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>702.00073220799993</v>
       </c>
-    </row>
-    <row r="205" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N204">
+        <f t="shared" si="23"/>
+        <v>603.01926779200005</v>
+      </c>
+    </row>
+    <row r="205" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J205">
         <v>703</v>
       </c>
       <c r="K205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.0373000000000019</v>
       </c>
       <c r="L205">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.12256219999999995</v>
       </c>
       <c r="M205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>703.00072391200001</v>
       </c>
-    </row>
-    <row r="206" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N205">
+        <f t="shared" si="23"/>
+        <v>602.01927608799997</v>
+      </c>
+    </row>
+    <row r="206" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J206">
         <v>704</v>
       </c>
       <c r="K206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.176400000000001</v>
       </c>
       <c r="L206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.12498959999999992</v>
       </c>
       <c r="M206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>704.00071561599998</v>
       </c>
-    </row>
-    <row r="207" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N206">
+        <f t="shared" si="23"/>
+        <v>601.019284384</v>
+      </c>
+    </row>
+    <row r="207" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J207">
         <v>705</v>
       </c>
       <c r="K207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.3155000000000001</v>
       </c>
       <c r="L207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.12741700000000011</v>
       </c>
       <c r="M207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>705.00070732000006</v>
       </c>
-    </row>
-    <row r="208" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N207">
+        <f t="shared" si="23"/>
+        <v>600.01929267999992</v>
+      </c>
+    </row>
+    <row r="208" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J208">
         <v>706</v>
       </c>
       <c r="K208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.4545999999999992</v>
       </c>
       <c r="L208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.12984440000000008</v>
       </c>
       <c r="M208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>706.00069902400003</v>
       </c>
-    </row>
-    <row r="209" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N208">
+        <f t="shared" si="23"/>
+        <v>599.01930097599995</v>
+      </c>
+    </row>
+    <row r="209" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J209">
         <v>707</v>
       </c>
       <c r="K209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.5936999999999983</v>
       </c>
       <c r="L209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.13227180000000005</v>
       </c>
       <c r="M209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>707.000690728</v>
       </c>
-    </row>
-    <row r="210" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N209">
+        <f t="shared" si="23"/>
+        <v>598.01930927199999</v>
+      </c>
+    </row>
+    <row r="210" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J210">
         <v>708</v>
       </c>
       <c r="K210">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.7327999999999975</v>
       </c>
       <c r="L210">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.13469920000000002</v>
       </c>
       <c r="M210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>708.00068243199996</v>
       </c>
-    </row>
-    <row r="211" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N210">
+        <f t="shared" si="23"/>
+        <v>597.01931756800002</v>
+      </c>
+    </row>
+    <row r="211" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J211">
         <v>709</v>
       </c>
       <c r="K211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-7.8718999999999966</v>
       </c>
       <c r="L211">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.13712659999999999</v>
       </c>
       <c r="M211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>709.00067413600004</v>
       </c>
-    </row>
-    <row r="212" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N211">
+        <f t="shared" si="23"/>
+        <v>596.01932586399994</v>
+      </c>
+    </row>
+    <row r="212" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J212">
         <v>710</v>
       </c>
       <c r="K212">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.0109999999999957</v>
       </c>
       <c r="L212">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.13955399999999996</v>
       </c>
       <c r="M212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>710.00066584000001</v>
       </c>
-    </row>
-    <row r="213" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N212">
+        <f t="shared" si="23"/>
+        <v>595.01933415999997</v>
+      </c>
+    </row>
+    <row r="213" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J213">
         <v>711</v>
       </c>
       <c r="K213">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.1500999999999948</v>
       </c>
       <c r="L213">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.14198139999999992</v>
       </c>
       <c r="M213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>711.00065754399998</v>
       </c>
-    </row>
-    <row r="214" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N213">
+        <f t="shared" si="23"/>
+        <v>594.019342456</v>
+      </c>
+    </row>
+    <row r="214" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J214">
         <v>712</v>
       </c>
       <c r="K214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.2891999999999939</v>
       </c>
       <c r="L214">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.14440880000000011</v>
       </c>
       <c r="M214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>712.00064924800006</v>
       </c>
-    </row>
-    <row r="215" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N214">
+        <f t="shared" si="23"/>
+        <v>593.01935075199992</v>
+      </c>
+    </row>
+    <row r="215" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J215">
         <v>713</v>
       </c>
       <c r="K215">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.4283000000000072</v>
       </c>
       <c r="L215">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.14683620000000008</v>
       </c>
       <c r="M215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>713.00064095200003</v>
       </c>
-    </row>
-    <row r="216" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N215">
+        <f t="shared" si="23"/>
+        <v>592.01935904799996</v>
+      </c>
+    </row>
+    <row r="216" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J216">
         <v>714</v>
       </c>
       <c r="K216">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.5674000000000063</v>
       </c>
       <c r="L216">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.14926360000000005</v>
       </c>
       <c r="M216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>714.00063265599999</v>
       </c>
-    </row>
-    <row r="217" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N216">
+        <f t="shared" si="23"/>
+        <v>591.01936734399999</v>
+      </c>
+    </row>
+    <row r="217" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J217">
         <v>715</v>
       </c>
       <c r="K217">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.7065000000000055</v>
       </c>
       <c r="L217">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.15169100000000002</v>
       </c>
       <c r="M217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>715.00062435999996</v>
       </c>
-    </row>
-    <row r="218" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N217">
+        <f t="shared" si="23"/>
+        <v>590.01937564000002</v>
+      </c>
+    </row>
+    <row r="218" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J218">
         <v>716</v>
       </c>
       <c r="K218">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.8456000000000046</v>
       </c>
       <c r="L218">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.15411839999999999</v>
       </c>
       <c r="M218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>716.00061606400004</v>
       </c>
-    </row>
-    <row r="219" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N218">
+        <f t="shared" si="23"/>
+        <v>589.01938393599994</v>
+      </c>
+    </row>
+    <row r="219" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J219">
         <v>717</v>
       </c>
       <c r="K219">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-8.9847000000000037</v>
       </c>
       <c r="L219">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.15654579999999996</v>
       </c>
       <c r="M219">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>717.00060776800001</v>
       </c>
-    </row>
-    <row r="220" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N219">
+        <f t="shared" si="23"/>
+        <v>588.01939223199997</v>
+      </c>
+    </row>
+    <row r="220" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J220">
         <v>718</v>
       </c>
       <c r="K220">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.1238000000000028</v>
       </c>
       <c r="L220">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.15897319999999993</v>
       </c>
       <c r="M220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>718.00059947199998</v>
       </c>
-    </row>
-    <row r="221" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N220">
+        <f t="shared" si="23"/>
+        <v>587.01940052800001</v>
+      </c>
+    </row>
+    <row r="221" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J221">
         <v>719</v>
       </c>
       <c r="K221">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.2629000000000019</v>
       </c>
       <c r="L221">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.16140060000000012</v>
       </c>
       <c r="M221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>719.00059117600006</v>
       </c>
-    </row>
-    <row r="222" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N221">
+        <f t="shared" si="23"/>
+        <v>586.01940882399992</v>
+      </c>
+    </row>
+    <row r="222" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J222">
         <v>720</v>
       </c>
       <c r="K222">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.402000000000001</v>
       </c>
       <c r="L222">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.16382800000000008</v>
       </c>
       <c r="M222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>720.00058288000002</v>
       </c>
-    </row>
-    <row r="223" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N222">
+        <f t="shared" si="23"/>
+        <v>585.01941711999996</v>
+      </c>
+    </row>
+    <row r="223" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J223">
         <v>721</v>
       </c>
       <c r="K223">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.5411000000000001</v>
       </c>
       <c r="L223">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.16625540000000005</v>
       </c>
       <c r="M223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>721.00057458399999</v>
       </c>
-    </row>
-    <row r="224" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N223">
+        <f t="shared" si="23"/>
+        <v>584.01942541599999</v>
+      </c>
+    </row>
+    <row r="224" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J224">
         <v>722</v>
       </c>
       <c r="K224">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.6801999999999992</v>
       </c>
       <c r="L224">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.16868280000000002</v>
       </c>
       <c r="M224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>722.00056628799996</v>
       </c>
-    </row>
-    <row r="225" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N224">
+        <f t="shared" si="23"/>
+        <v>583.01943371200002</v>
+      </c>
+    </row>
+    <row r="225" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J225">
         <v>723</v>
       </c>
       <c r="K225">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.8192999999999984</v>
       </c>
       <c r="L225">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17111019999999999</v>
       </c>
       <c r="M225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>723.00055799200004</v>
       </c>
-    </row>
-    <row r="226" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N225">
+        <f t="shared" si="23"/>
+        <v>582.01944200799994</v>
+      </c>
+    </row>
+    <row r="226" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J226">
         <v>724</v>
       </c>
       <c r="K226">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-9.9583999999999975</v>
       </c>
       <c r="L226">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17353759999999996</v>
       </c>
       <c r="M226">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>724.00054969600001</v>
       </c>
-    </row>
-    <row r="227" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N226">
+        <f t="shared" si="23"/>
+        <v>581.01945030399997</v>
+      </c>
+    </row>
+    <row r="227" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J227">
         <v>725</v>
       </c>
       <c r="K227">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.097499999999997</v>
       </c>
       <c r="L227">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17596499999999993</v>
       </c>
       <c r="M227">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>725.00054139999997</v>
       </c>
-    </row>
-    <row r="228" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N227">
+        <f t="shared" si="23"/>
+        <v>580.01945860000001</v>
+      </c>
+    </row>
+    <row r="228" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J228">
         <v>726</v>
       </c>
       <c r="K228">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.236599999999996</v>
       </c>
       <c r="L228">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.17839240000000012</v>
       </c>
       <c r="M228">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>726.00053310400006</v>
       </c>
-    </row>
-    <row r="229" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N228">
+        <f t="shared" si="23"/>
+        <v>579.01946689599993</v>
+      </c>
+    </row>
+    <row r="229" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J229">
         <v>727</v>
       </c>
       <c r="K229">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.375699999999995</v>
       </c>
       <c r="L229">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.18081980000000009</v>
       </c>
       <c r="M229">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>727.00052480800002</v>
       </c>
-    </row>
-    <row r="230" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N229">
+        <f t="shared" si="23"/>
+        <v>578.01947519199996</v>
+      </c>
+    </row>
+    <row r="230" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J230">
         <v>728</v>
       </c>
       <c r="K230">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.514800000000008</v>
       </c>
       <c r="L230">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.18324720000000005</v>
       </c>
       <c r="M230">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>728.00051651199999</v>
       </c>
-    </row>
-    <row r="231" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N230">
+        <f t="shared" si="23"/>
+        <v>577.01948348799999</v>
+      </c>
+    </row>
+    <row r="231" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J231">
         <v>729</v>
       </c>
       <c r="K231">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.653900000000007</v>
       </c>
       <c r="L231">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.18567460000000002</v>
       </c>
       <c r="M231">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>729.00050821599996</v>
       </c>
-    </row>
-    <row r="232" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N231">
+        <f t="shared" si="23"/>
+        <v>576.01949178400002</v>
+      </c>
+    </row>
+    <row r="232" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J232">
         <v>730</v>
       </c>
       <c r="K232">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.793000000000006</v>
       </c>
       <c r="L232">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.18810199999999999</v>
       </c>
       <c r="M232">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>730.00049992000004</v>
       </c>
-    </row>
-    <row r="233" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N232">
+        <f t="shared" si="23"/>
+        <v>575.01950007999994</v>
+      </c>
+    </row>
+    <row r="233" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J233">
         <v>731</v>
       </c>
       <c r="K233">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.932100000000005</v>
       </c>
       <c r="L233">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.19052939999999996</v>
       </c>
       <c r="M233">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>731.00049162400001</v>
       </c>
-    </row>
-    <row r="234" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N233">
+        <f t="shared" si="23"/>
+        <v>574.01950837599998</v>
+      </c>
+    </row>
+    <row r="234" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J234">
         <v>732</v>
       </c>
       <c r="K234">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.071200000000005</v>
       </c>
       <c r="L234">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.19295679999999993</v>
       </c>
       <c r="M234">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>732.00048332799997</v>
       </c>
-    </row>
-    <row r="235" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N234">
+        <f t="shared" si="23"/>
+        <v>573.01951667200001</v>
+      </c>
+    </row>
+    <row r="235" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J235">
         <v>733</v>
       </c>
       <c r="K235">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.210300000000004</v>
       </c>
       <c r="L235">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.19538420000000012</v>
       </c>
       <c r="M235">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>733.00047503200005</v>
       </c>
-    </row>
-    <row r="236" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N235">
+        <f t="shared" si="23"/>
+        <v>572.01952496799993</v>
+      </c>
+    </row>
+    <row r="236" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J236">
         <v>734</v>
       </c>
       <c r="K236">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.349400000000003</v>
       </c>
       <c r="L236">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.19781160000000009</v>
       </c>
       <c r="M236">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>734.00046673600002</v>
       </c>
-    </row>
-    <row r="237" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N236">
+        <f t="shared" si="23"/>
+        <v>571.01953326399996</v>
+      </c>
+    </row>
+    <row r="237" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J237">
         <v>735</v>
       </c>
       <c r="K237">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.488500000000002</v>
       </c>
       <c r="L237">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.20023900000000006</v>
       </c>
       <c r="M237">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>735.00045843999999</v>
       </c>
-    </row>
-    <row r="238" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N237">
+        <f t="shared" si="23"/>
+        <v>570.01954155999999</v>
+      </c>
+    </row>
+    <row r="238" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J238">
         <v>736</v>
       </c>
       <c r="K238">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.627600000000001</v>
       </c>
       <c r="L238">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.20266640000000002</v>
       </c>
       <c r="M238">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>736.00045014399996</v>
       </c>
-    </row>
-    <row r="239" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N238">
+        <f t="shared" si="23"/>
+        <v>569.01954985600003</v>
+      </c>
+    </row>
+    <row r="239" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J239">
         <v>737</v>
       </c>
       <c r="K239">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.7667</v>
       </c>
       <c r="L239">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.20509379999999999</v>
       </c>
       <c r="M239">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>737.00044184800004</v>
       </c>
-    </row>
-    <row r="240" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N239">
+        <f t="shared" si="23"/>
+        <v>568.01955815199995</v>
+      </c>
+    </row>
+    <row r="240" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J240">
         <v>738</v>
       </c>
       <c r="K240">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.905799999999999</v>
       </c>
       <c r="L240">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.20752119999999996</v>
       </c>
       <c r="M240">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>738.000433552</v>
       </c>
-    </row>
-    <row r="241" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N240">
+        <f t="shared" si="23"/>
+        <v>567.01956644799998</v>
+      </c>
+    </row>
+    <row r="241" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J241">
         <v>739</v>
       </c>
       <c r="K241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.044899999999998</v>
       </c>
       <c r="L241">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.20994859999999993</v>
       </c>
       <c r="M241">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>739.00042525599997</v>
       </c>
-    </row>
-    <row r="242" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N241">
+        <f t="shared" si="23"/>
+        <v>566.01957474400001</v>
+      </c>
+    </row>
+    <row r="242" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J242">
         <v>740</v>
       </c>
       <c r="K242">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.183999999999997</v>
       </c>
       <c r="L242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.21237600000000012</v>
       </c>
       <c r="M242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>740.00041696000005</v>
       </c>
-    </row>
-    <row r="243" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N242">
+        <f t="shared" si="23"/>
+        <v>565.01958303999993</v>
+      </c>
+    </row>
+    <row r="243" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J243">
         <v>741</v>
       </c>
       <c r="K243">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.323099999999997</v>
       </c>
       <c r="L243">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.21480340000000009</v>
       </c>
       <c r="M243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>741.00040866400002</v>
       </c>
-    </row>
-    <row r="244" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N243">
+        <f t="shared" si="23"/>
+        <v>564.01959133599996</v>
+      </c>
+    </row>
+    <row r="244" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J244">
         <v>742</v>
       </c>
       <c r="K244">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.462199999999996</v>
       </c>
       <c r="L244">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.21723080000000006</v>
       </c>
       <c r="M244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>742.00040036799999</v>
       </c>
-    </row>
-    <row r="245" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N244">
+        <f t="shared" si="23"/>
+        <v>563.01959963199999</v>
+      </c>
+    </row>
+    <row r="245" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J245">
         <v>743</v>
       </c>
       <c r="K245">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.601299999999995</v>
       </c>
       <c r="L245">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.21965820000000003</v>
       </c>
       <c r="M245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>743.00039207199995</v>
       </c>
-    </row>
-    <row r="246" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N245">
+        <f t="shared" si="23"/>
+        <v>562.01960792800003</v>
+      </c>
+    </row>
+    <row r="246" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J246">
         <v>744</v>
       </c>
       <c r="K246">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.740399999999994</v>
       </c>
       <c r="L246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.22208559999999999</v>
       </c>
       <c r="M246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>744.00038377600004</v>
       </c>
-    </row>
-    <row r="247" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N246">
+        <f t="shared" si="23"/>
+        <v>561.01961622399995</v>
+      </c>
+    </row>
+    <row r="247" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J247">
         <v>745</v>
       </c>
       <c r="K247">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-12.879500000000007</v>
       </c>
       <c r="L247">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.22451299999999996</v>
       </c>
       <c r="M247">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>745.00037548</v>
       </c>
-    </row>
-    <row r="248" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N247">
+        <f t="shared" si="23"/>
+        <v>560.01962451999998</v>
+      </c>
+    </row>
+    <row r="248" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J248">
         <v>746</v>
       </c>
       <c r="K248">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.018600000000006</v>
       </c>
       <c r="L248">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.22694039999999993</v>
       </c>
       <c r="M248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>746.00036718399997</v>
       </c>
-    </row>
-    <row r="249" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N248">
+        <f t="shared" si="23"/>
+        <v>559.01963281600001</v>
+      </c>
+    </row>
+    <row r="249" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J249">
         <v>747</v>
       </c>
       <c r="K249">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.157700000000006</v>
       </c>
       <c r="L249">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.22936780000000012</v>
       </c>
       <c r="M249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>747.00035888800005</v>
       </c>
-    </row>
-    <row r="250" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N249">
+        <f t="shared" si="23"/>
+        <v>558.01964111199993</v>
+      </c>
+    </row>
+    <row r="250" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J250">
         <v>748</v>
       </c>
       <c r="K250">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.296800000000005</v>
       </c>
       <c r="L250">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.23179520000000009</v>
       </c>
       <c r="M250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>748.00035059200002</v>
       </c>
-    </row>
-    <row r="251" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N250">
+        <f t="shared" si="23"/>
+        <v>557.01964940799996</v>
+      </c>
+    </row>
+    <row r="251" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J251">
         <v>749</v>
       </c>
       <c r="K251">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.435900000000004</v>
       </c>
       <c r="L251">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.23422260000000006</v>
       </c>
       <c r="M251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>749.00034229599999</v>
       </c>
-    </row>
-    <row r="252" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N251">
+        <f t="shared" si="23"/>
+        <v>556.019657704</v>
+      </c>
+    </row>
+    <row r="252" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J252">
         <v>750</v>
       </c>
       <c r="K252">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.575000000000003</v>
       </c>
       <c r="L252">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.23665000000000003</v>
       </c>
       <c r="M252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>750.00033399999995</v>
       </c>
-    </row>
-    <row r="253" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N252">
+        <f t="shared" si="23"/>
+        <v>555.01966600000003</v>
+      </c>
+    </row>
+    <row r="253" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J253">
         <v>751</v>
       </c>
       <c r="K253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.714100000000002</v>
       </c>
       <c r="L253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.2390774</v>
       </c>
       <c r="M253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>751.00032570400003</v>
       </c>
-    </row>
-    <row r="254" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N253">
+        <f t="shared" si="23"/>
+        <v>554.01967429599995</v>
+      </c>
+    </row>
+    <row r="254" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J254">
         <v>752</v>
       </c>
       <c r="K254">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.853200000000001</v>
       </c>
       <c r="L254">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.24150479999999996</v>
       </c>
       <c r="M254">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>752.000317408</v>
       </c>
-    </row>
-    <row r="255" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N254">
+        <f t="shared" si="23"/>
+        <v>553.01968259199998</v>
+      </c>
+    </row>
+    <row r="255" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J255">
         <v>753</v>
       </c>
       <c r="K255">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-13.9923</v>
       </c>
       <c r="L255">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.24393219999999993</v>
       </c>
       <c r="M255">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>753.00030911199997</v>
       </c>
-    </row>
-    <row r="256" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N255">
+        <f t="shared" si="23"/>
+        <v>552.01969088800001</v>
+      </c>
+    </row>
+    <row r="256" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J256">
         <v>754</v>
       </c>
       <c r="K256">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-14.131399999999999</v>
       </c>
       <c r="L256">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.24635960000000012</v>
       </c>
       <c r="M256">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>754.00030081600005</v>
       </c>
-    </row>
-    <row r="257" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N256">
+        <f t="shared" si="23"/>
+        <v>551.01969918399993</v>
+      </c>
+    </row>
+    <row r="257" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J257">
         <v>755</v>
       </c>
       <c r="K257">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-14.270499999999998</v>
       </c>
       <c r="L257">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.24878700000000009</v>
       </c>
       <c r="M257">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>755.00029252000002</v>
       </c>
-    </row>
-    <row r="258" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N257">
+        <f t="shared" si="23"/>
+        <v>550.01970747999997</v>
+      </c>
+    </row>
+    <row r="258" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J258">
         <v>756</v>
       </c>
       <c r="K258">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-14.409599999999998</v>
       </c>
       <c r="L258">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.25121440000000006</v>
       </c>
       <c r="M258">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>756.00028422399998</v>
       </c>
-    </row>
-    <row r="259" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N258">
+        <f t="shared" si="23"/>
+        <v>549.019715776</v>
+      </c>
+    </row>
+    <row r="259" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J259">
         <v>757</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K302" si="20">-0.1391*J259+90.75</f>
+        <f t="shared" ref="K259:K302" si="24">-0.1391*J259+90.75</f>
         <v>-14.548699999999997</v>
       </c>
       <c r="L259">
-        <f t="shared" ref="L259:L302" si="21">(0.0024274*J259-1.5839)</f>
+        <f t="shared" ref="L259:L302" si="25">(0.0024274*J259-1.5839)</f>
         <v>0.25364180000000003</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M302" si="22">411.96*L259+652.51</f>
+        <f t="shared" ref="M259:M302" si="26">411.96*L259+652.51</f>
         <v>757.00027592799995</v>
       </c>
-    </row>
-    <row r="260" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N259">
+        <f t="shared" ref="N259:N302" si="27">-411.96*L259+652.51</f>
+        <v>548.01972407200003</v>
+      </c>
+    </row>
+    <row r="260" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J260">
         <v>758</v>
       </c>
       <c r="K260">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-14.687799999999996</v>
       </c>
       <c r="L260">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.2560692</v>
       </c>
       <c r="M260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>758.00026763200003</v>
       </c>
-    </row>
-    <row r="261" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N260">
+        <f t="shared" si="27"/>
+        <v>547.01973236799995</v>
+      </c>
+    </row>
+    <row r="261" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J261">
         <v>759</v>
       </c>
       <c r="K261">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-14.826899999999995</v>
       </c>
       <c r="L261">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.25849659999999997</v>
       </c>
       <c r="M261">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>759.000259336</v>
       </c>
-    </row>
-    <row r="262" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N261">
+        <f t="shared" si="27"/>
+        <v>546.01974066399998</v>
+      </c>
+    </row>
+    <row r="262" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J262">
         <v>760</v>
       </c>
       <c r="K262">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-14.966000000000008</v>
       </c>
       <c r="L262">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.26092399999999993</v>
       </c>
       <c r="M262">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>760.00025103999997</v>
       </c>
-    </row>
-    <row r="263" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N262">
+        <f t="shared" si="27"/>
+        <v>545.01974896000002</v>
+      </c>
+    </row>
+    <row r="263" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J263">
         <v>761</v>
       </c>
       <c r="K263">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.105100000000007</v>
       </c>
       <c r="L263">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.26335140000000012</v>
       </c>
       <c r="M263">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>761.00024274400005</v>
       </c>
-    </row>
-    <row r="264" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N263">
+        <f t="shared" si="27"/>
+        <v>544.01975725599993</v>
+      </c>
+    </row>
+    <row r="264" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J264">
         <v>762</v>
       </c>
       <c r="K264">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.244200000000006</v>
       </c>
       <c r="L264">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.26577880000000009</v>
       </c>
       <c r="M264">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>762.00023444800001</v>
       </c>
-    </row>
-    <row r="265" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N264">
+        <f t="shared" si="27"/>
+        <v>543.01976555199997</v>
+      </c>
+    </row>
+    <row r="265" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J265">
         <v>763</v>
       </c>
       <c r="K265">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.383300000000006</v>
       </c>
       <c r="L265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.26820620000000006</v>
       </c>
       <c r="M265">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>763.00022615199998</v>
       </c>
-    </row>
-    <row r="266" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N265">
+        <f t="shared" si="27"/>
+        <v>542.019773848</v>
+      </c>
+    </row>
+    <row r="266" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J266">
         <v>764</v>
       </c>
       <c r="K266">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.522400000000005</v>
       </c>
       <c r="L266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.27063360000000003</v>
       </c>
       <c r="M266">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>764.00021785599995</v>
       </c>
-    </row>
-    <row r="267" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N266">
+        <f t="shared" si="27"/>
+        <v>541.01978214400003</v>
+      </c>
+    </row>
+    <row r="267" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J267">
         <v>765</v>
       </c>
       <c r="K267">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.661500000000004</v>
       </c>
       <c r="L267">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.273061</v>
       </c>
       <c r="M267">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>765.00020956000003</v>
       </c>
-    </row>
-    <row r="268" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N267">
+        <f t="shared" si="27"/>
+        <v>540.01979043999995</v>
+      </c>
+    </row>
+    <row r="268" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J268">
         <v>766</v>
       </c>
       <c r="K268">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.800600000000003</v>
       </c>
       <c r="L268">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.27548839999999997</v>
       </c>
       <c r="M268">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>766.000201264</v>
       </c>
-    </row>
-    <row r="269" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N268">
+        <f t="shared" si="27"/>
+        <v>539.01979873599998</v>
+      </c>
+    </row>
+    <row r="269" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J269">
         <v>767</v>
       </c>
       <c r="K269">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-15.939700000000002</v>
       </c>
       <c r="L269">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.27791579999999994</v>
       </c>
       <c r="M269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>767.00019296799996</v>
       </c>
-    </row>
-    <row r="270" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N269">
+        <f t="shared" si="27"/>
+        <v>538.01980703200002</v>
+      </c>
+    </row>
+    <row r="270" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J270">
         <v>768</v>
       </c>
       <c r="K270">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.078800000000001</v>
       </c>
       <c r="L270">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.28034320000000013</v>
       </c>
       <c r="M270">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>768.00018467200005</v>
       </c>
-    </row>
-    <row r="271" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N270">
+        <f t="shared" si="27"/>
+        <v>537.01981532799994</v>
+      </c>
+    </row>
+    <row r="271" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J271">
         <v>769</v>
       </c>
       <c r="K271">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.2179</v>
       </c>
       <c r="L271">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.28277060000000009</v>
       </c>
       <c r="M271">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>769.00017637600001</v>
       </c>
-    </row>
-    <row r="272" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N271">
+        <f t="shared" si="27"/>
+        <v>536.01982362399997</v>
+      </c>
+    </row>
+    <row r="272" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J272">
         <v>770</v>
       </c>
       <c r="K272">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.356999999999999</v>
       </c>
       <c r="L272">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.28519800000000006</v>
       </c>
       <c r="M272">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>770.00016807999998</v>
       </c>
-    </row>
-    <row r="273" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N272">
+        <f t="shared" si="27"/>
+        <v>535.01983192</v>
+      </c>
+    </row>
+    <row r="273" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J273">
         <v>771</v>
       </c>
       <c r="K273">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.496099999999998</v>
       </c>
       <c r="L273">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.28762540000000003</v>
       </c>
       <c r="M273">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>771.00015978400006</v>
       </c>
-    </row>
-    <row r="274" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N273">
+        <f t="shared" si="27"/>
+        <v>534.01984021599992</v>
+      </c>
+    </row>
+    <row r="274" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J274">
         <v>772</v>
       </c>
       <c r="K274">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.635199999999998</v>
       </c>
       <c r="L274">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.2900528</v>
       </c>
       <c r="M274">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>772.00015148800003</v>
       </c>
-    </row>
-    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N274">
+        <f t="shared" si="27"/>
+        <v>533.01984851199995</v>
+      </c>
+    </row>
+    <row r="275" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J275">
         <v>773</v>
       </c>
       <c r="K275">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.774299999999997</v>
       </c>
       <c r="L275">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.29248019999999997</v>
       </c>
       <c r="M275">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>773.000143192</v>
       </c>
-    </row>
-    <row r="276" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N275">
+        <f t="shared" si="27"/>
+        <v>532.01985680799999</v>
+      </c>
+    </row>
+    <row r="276" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J276">
         <v>774</v>
       </c>
       <c r="K276">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-16.913399999999996</v>
       </c>
       <c r="L276">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.29490759999999994</v>
       </c>
       <c r="M276">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>774.00013489599996</v>
       </c>
-    </row>
-    <row r="277" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N276">
+        <f t="shared" si="27"/>
+        <v>531.01986510400002</v>
+      </c>
+    </row>
+    <row r="277" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J277">
         <v>775</v>
       </c>
       <c r="K277">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.052499999999995</v>
       </c>
       <c r="L277">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.2973349999999999</v>
       </c>
       <c r="M277">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>775.00012659999993</v>
       </c>
-    </row>
-    <row r="278" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N277">
+        <f t="shared" si="27"/>
+        <v>530.01987340000005</v>
+      </c>
+    </row>
+    <row r="278" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J278">
         <v>776</v>
       </c>
       <c r="K278">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.191599999999994</v>
       </c>
       <c r="L278">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.2997624000000001</v>
       </c>
       <c r="M278">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>776.00011830400001</v>
       </c>
-    </row>
-    <row r="279" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N278">
+        <f t="shared" si="27"/>
+        <v>529.01988169599997</v>
+      </c>
+    </row>
+    <row r="279" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J279">
         <v>777</v>
       </c>
       <c r="K279">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.330700000000007</v>
       </c>
       <c r="L279">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.30218980000000006</v>
       </c>
       <c r="M279">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>777.00011000799998</v>
       </c>
-    </row>
-    <row r="280" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N279">
+        <f t="shared" si="27"/>
+        <v>528.019889992</v>
+      </c>
+    </row>
+    <row r="280" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J280">
         <v>778</v>
       </c>
       <c r="K280">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.469800000000006</v>
       </c>
       <c r="L280">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.30461720000000003</v>
       </c>
       <c r="M280">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>778.00010171200006</v>
       </c>
-    </row>
-    <row r="281" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N280">
+        <f t="shared" si="27"/>
+        <v>527.01989828799992</v>
+      </c>
+    </row>
+    <row r="281" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J281">
         <v>779</v>
       </c>
       <c r="K281">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.608900000000006</v>
       </c>
       <c r="L281">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.3070446</v>
       </c>
       <c r="M281">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>779.00009341600003</v>
       </c>
-    </row>
-    <row r="282" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N281">
+        <f t="shared" si="27"/>
+        <v>526.01990658399995</v>
+      </c>
+    </row>
+    <row r="282" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J282">
         <v>780</v>
       </c>
       <c r="K282">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.748000000000005</v>
       </c>
       <c r="L282">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.30947199999999997</v>
       </c>
       <c r="M282">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>780.00008511999999</v>
       </c>
-    </row>
-    <row r="283" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N282">
+        <f t="shared" si="27"/>
+        <v>525.01991487999999</v>
+      </c>
+    </row>
+    <row r="283" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J283">
         <v>781</v>
       </c>
       <c r="K283">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-17.887100000000004</v>
       </c>
       <c r="L283">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.31189939999999994</v>
       </c>
       <c r="M283">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>781.00007682399996</v>
       </c>
-    </row>
-    <row r="284" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N283">
+        <f t="shared" si="27"/>
+        <v>524.01992317600002</v>
+      </c>
+    </row>
+    <row r="284" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J284">
         <v>782</v>
       </c>
       <c r="K284">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.026200000000003</v>
       </c>
       <c r="L284">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.31432679999999991</v>
       </c>
       <c r="M284">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>782.00006852799993</v>
       </c>
-    </row>
-    <row r="285" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N284">
+        <f t="shared" si="27"/>
+        <v>523.01993147200005</v>
+      </c>
+    </row>
+    <row r="285" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J285">
         <v>783</v>
       </c>
       <c r="K285">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.165300000000002</v>
       </c>
       <c r="L285">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.3167542000000001</v>
       </c>
       <c r="M285">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>783.00006023200001</v>
       </c>
-    </row>
-    <row r="286" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N285">
+        <f t="shared" si="27"/>
+        <v>522.01993976799997</v>
+      </c>
+    </row>
+    <row r="286" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J286">
         <v>784</v>
       </c>
       <c r="K286">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.304400000000001</v>
       </c>
       <c r="L286">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.31918160000000007</v>
       </c>
       <c r="M286">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>784.00005193599998</v>
       </c>
-    </row>
-    <row r="287" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N286">
+        <f t="shared" si="27"/>
+        <v>521.019948064</v>
+      </c>
+    </row>
+    <row r="287" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J287">
         <v>785</v>
       </c>
       <c r="K287">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.4435</v>
       </c>
       <c r="L287">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.32160900000000003</v>
       </c>
       <c r="M287">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>785.00004364000006</v>
       </c>
-    </row>
-    <row r="288" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N287">
+        <f t="shared" si="27"/>
+        <v>520.01995635999992</v>
+      </c>
+    </row>
+    <row r="288" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J288">
         <v>786</v>
       </c>
       <c r="K288">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.582599999999999</v>
       </c>
       <c r="L288">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.3240364</v>
       </c>
       <c r="M288">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>786.00003534400003</v>
       </c>
-    </row>
-    <row r="289" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N288">
+        <f t="shared" si="27"/>
+        <v>519.01996465599996</v>
+      </c>
+    </row>
+    <row r="289" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J289">
         <v>787</v>
       </c>
       <c r="K289">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.721699999999998</v>
       </c>
       <c r="L289">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.32646379999999997</v>
       </c>
       <c r="M289">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>787.00002704799999</v>
       </c>
-    </row>
-    <row r="290" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N289">
+        <f t="shared" si="27"/>
+        <v>518.01997295199999</v>
+      </c>
+    </row>
+    <row r="290" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J290">
         <v>788</v>
       </c>
       <c r="K290">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.860799999999998</v>
       </c>
       <c r="L290">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.32889119999999994</v>
       </c>
       <c r="M290">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>788.00001875199996</v>
       </c>
-    </row>
-    <row r="291" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N290">
+        <f t="shared" si="27"/>
+        <v>517.01998124800002</v>
+      </c>
+    </row>
+    <row r="291" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J291">
         <v>789</v>
       </c>
       <c r="K291">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-18.999899999999997</v>
       </c>
       <c r="L291">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.33131859999999991</v>
       </c>
       <c r="M291">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>789.00001045599993</v>
       </c>
-    </row>
-    <row r="292" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N291">
+        <f t="shared" si="27"/>
+        <v>516.01998954400005</v>
+      </c>
+    </row>
+    <row r="292" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J292">
         <v>790</v>
       </c>
       <c r="K292">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.138999999999996</v>
       </c>
       <c r="L292">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.3337460000000001</v>
       </c>
       <c r="M292">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>790.00000216000001</v>
       </c>
-    </row>
-    <row r="293" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N292">
+        <f t="shared" si="27"/>
+        <v>515.01999783999997</v>
+      </c>
+    </row>
+    <row r="293" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J293">
         <v>791</v>
       </c>
       <c r="K293">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.278099999999995</v>
       </c>
       <c r="L293">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.33617340000000007</v>
       </c>
       <c r="M293">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>790.99999386399998</v>
       </c>
-    </row>
-    <row r="294" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N293">
+        <f t="shared" si="27"/>
+        <v>514.02000613600001</v>
+      </c>
+    </row>
+    <row r="294" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J294">
         <v>792</v>
       </c>
       <c r="K294">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.417200000000008</v>
       </c>
       <c r="L294">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.33860080000000004</v>
       </c>
       <c r="M294">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>791.99998556800006</v>
       </c>
-    </row>
-    <row r="295" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N294">
+        <f t="shared" si="27"/>
+        <v>513.02001443199993</v>
+      </c>
+    </row>
+    <row r="295" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J295">
         <v>793</v>
       </c>
       <c r="K295">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.556300000000007</v>
       </c>
       <c r="L295">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.3410282</v>
       </c>
       <c r="M295">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>792.99997727200002</v>
       </c>
-    </row>
-    <row r="296" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N295">
+        <f t="shared" si="27"/>
+        <v>512.02002272799996</v>
+      </c>
+    </row>
+    <row r="296" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J296">
         <v>794</v>
       </c>
       <c r="K296">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.695400000000006</v>
       </c>
       <c r="L296">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.34345559999999997</v>
       </c>
       <c r="M296">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>793.99996897599999</v>
       </c>
-    </row>
-    <row r="297" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N296">
+        <f t="shared" si="27"/>
+        <v>511.02003102399999</v>
+      </c>
+    </row>
+    <row r="297" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J297">
         <v>795</v>
       </c>
       <c r="K297">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.834500000000006</v>
       </c>
       <c r="L297">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.34588299999999994</v>
       </c>
       <c r="M297">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>794.99996067999996</v>
       </c>
-    </row>
-    <row r="298" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N297">
+        <f t="shared" si="27"/>
+        <v>510.02003932000002</v>
+      </c>
+    </row>
+    <row r="298" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J298">
         <v>796</v>
       </c>
       <c r="K298">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-19.973600000000005</v>
       </c>
       <c r="L298">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.34831039999999991</v>
       </c>
       <c r="M298">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>795.99995238399993</v>
       </c>
-    </row>
-    <row r="299" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N298">
+        <f t="shared" si="27"/>
+        <v>509.02004761600006</v>
+      </c>
+    </row>
+    <row r="299" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J299">
         <v>797</v>
       </c>
       <c r="K299">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-20.112700000000004</v>
       </c>
       <c r="L299">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.3507378000000001</v>
       </c>
       <c r="M299">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>796.99994408800001</v>
       </c>
-    </row>
-    <row r="300" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N299">
+        <f t="shared" si="27"/>
+        <v>508.02005591199998</v>
+      </c>
+    </row>
+    <row r="300" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J300">
         <v>798</v>
       </c>
       <c r="K300">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-20.251800000000003</v>
       </c>
       <c r="L300">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.35316520000000007</v>
       </c>
       <c r="M300">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>797.99993579199997</v>
       </c>
-    </row>
-    <row r="301" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N300">
+        <f t="shared" si="27"/>
+        <v>507.02006420800001</v>
+      </c>
+    </row>
+    <row r="301" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J301">
         <v>799</v>
       </c>
       <c r="K301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-20.390900000000002</v>
       </c>
       <c r="L301">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.35559260000000004</v>
       </c>
       <c r="M301">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>798.99992749600005</v>
       </c>
-    </row>
-    <row r="302" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N301">
+        <f t="shared" si="27"/>
+        <v>506.02007250399998</v>
+      </c>
+    </row>
+    <row r="302" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J302">
         <v>800</v>
       </c>
       <c r="K302">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-20.53</v>
       </c>
       <c r="L302">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.35802</v>
       </c>
       <c r="M302">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>799.99991920000002</v>
+      </c>
+      <c r="N302">
+        <f t="shared" si="27"/>
+        <v>505.02008079999996</v>
       </c>
     </row>
   </sheetData>
